--- a/news_data/2018_03.xlsx
+++ b/news_data/2018_03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,72 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>[제주소식]제주도관광협회, 일본 관광객 유치 활동 등</t>
+  </si>
+  <si>
+    <t>제주도, 11월까지 공영관광지 32곳 친절도 등 운영평가</t>
+  </si>
+  <si>
+    <t>제주도, 4·3추념일 공영관광지 26곳 무료입장 허용</t>
+  </si>
+  <si>
+    <t>제주도-제주올레, “글로벌 생태관광 모델 만든다”…MOU 체결</t>
+  </si>
+  <si>
+    <t>제주도 관광객, 체류일수·재방문율↑ 씀씀이↓</t>
+  </si>
+  <si>
+    <t>제주도 내국인 관광객수 증가 반면 수익성 낮아어</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광포럼 제1차 운영위원회의 개최</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사, 봄 축제 영상 공모전 개최</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 융자 97개 업체 200억원</t>
+  </si>
+  <si>
+    <t>제주도관광지 유리의성, 테마공원 조성 및 각종 체험공간 제공</t>
+  </si>
+  <si>
+    <t>제주도의회, '中 자본' 금수산장 관광단지 개발사업 가결</t>
+  </si>
+  <si>
+    <t>제주도, 농어촌 융합 마을주도형 관광지 들어선다</t>
+  </si>
+  <si>
+    <t>제주도관광협회 옥상옥 상근이사직 신설 논란</t>
+  </si>
+  <si>
+    <t>제주도, 말聯 국제관광전 참가 “무슬림 프렌들리 제주”</t>
+  </si>
+  <si>
+    <t>제주도, 17억들여 관광약자 이용시설 대폭확충</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제2차 이사회·대의원총회 개최</t>
+  </si>
+  <si>
+    <t>포항 소방관, 제주도서 여성관광객 성폭행 시도</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 골프종합전시회서 제주골프 홍보관 운영</t>
+  </si>
+  <si>
+    <t>제주도내 관광업계와 OTA간 비즈니스 확대 가능성 확인</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제34대 자문위원회 15명 위촉...본격 운영 돌입</t>
+  </si>
+  <si>
+    <t>김영진 제34대 제주도관광협회장 취임</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 경기도 판교서 제주홍보관 운영</t>
+  </si>
+  <si>
     <t>제주도, 중국發 관광위기 “동남아 인센티브 투어가 답”</t>
   </si>
   <si>
@@ -43,43 +109,106 @@
     <t>제주도 우도 맛집 ‘호로락’, 검멀레해변 찾아오는 관광객 위한 점심식사 제...</t>
   </si>
   <si>
+    <t>제주도 게스트하우스서 또 여성관광객 대상 성범죄…"또 파티가 문제야?"</t>
+  </si>
+  <si>
     <t>[제주도 여행]제주 동문·서귀포 매일올레 등 전통 야시장, 이색 먹거리로 관...</t>
   </si>
   <si>
     <t>김영진 제34대 제주도 관광협회장 선출</t>
   </si>
   <si>
-    <t>제주도 게스트하우스서 또 여성관광객 대상 성범죄…"또 파티가 문제야?"</t>
+    <t>[제주소식]제주도관광협회, 일본 관광객 유치 활동 등 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 [제주소식]제주도관광협회, 일본 관광객 유치 활동 등 등록 2018.03.30 16:27:28 작게 크게 【제주=뉴시스】제주도관광협회는 ‘2018 제주방문의 해’를 맞아 지난 25일부터 29일까지 닷새간 일본 도쿄 및 오사카 지역을 방문해 일본인 관광객 유치 활동을 전개했다고 30일 밝혔다. (사진=제주도관광협회 제공) 【제주=뉴시스】조수진 기자 = ◇제주도관광협회, 일본 관광객 유치 활동 최근 제주를 찾는 일본인 관광객이 늘어나는 가운데 제주도와 제주도관광협회가 방문객 증가 추세를 이어가기 위한 홍보 활동에 나섰다. 제주도관광협회는 지난 25일부터 29일까지 제주특별자치도 및 도내 일본 인바운드 전문 여행업체와 함께 일본 도쿄·오사카 지역을 방문해 관광객 유치 마케팅을 전개했다고 30일 밝혔다. 일본 현지 에이전트 업체를 대상으로 개최한 제주관광 상품 활성화 간담회에서는 신규 호텔 안내 및 회원제 운영 골프장 개별 소비세 감면 소식 등이 공유됐다. ‘2018 제주방문의 해’를 맞아 제주 4·3 70주년과 연계한 기획 여행상품 구성 협의도 함께 진행됐다. ◇‘제주방문 관광객 서비스 강화 워크숍’ 개최 제주도관광협회는 지난 29일 오후 제주시 연동 제주웰컴센터 1층 웰컴홀에서 ‘제주방문 관광객 친절 서비스 강화 워크숍’을 개최했다고 30일 밝혔다. 이번 워크숍은 ‘2018 제주방문의 해’를 맞아 봄 성수기를 앞두고 제주도 내 관광사업체 대표자 및 종사자 200여명을 대상으로 열렸다. 이날 원희룡 제주도지사의 ‘대고객 서비스 향상이 관광제주를 만든다’ 주제 강연, 이완국 친절전문강사의 ‘웃음으로 맞이하는 제주관광’ 강연, ‘제주 4·3사건 영상기록’ 시청 등이 진행됐다. 도관광협회는 관광 서비스 향상을 위한 교육 및 워크숍을 지속적으로 마련하고 도내 초등학생을 대상으로도 관광교육을 전개할 예정이다. susie@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 11월까지 공영관광지 32곳 친절도 등 운영평가 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 11월까지 공영관광지 32곳 친절도 등 운영평가 (제주=뉴스1) 고동명 기자					| 2018-03-29 10:10 송고 | 2018-03-29 10:38 최종수정 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 화창한 날씨를 보인3월13일 관광객들이 제주 서귀포시 섭지코지 내 유채꽃밭에서 사진을 찍으며 즐거운 시간을 보내고 있다.2018.3.13/뉴스1 © News1 이석형 기자 제주도는 도내 공영관광지 32곳을 대상으로 11월까지 운영평가를 한다고 29일 밝혔다.도는 근무자 친절도와 적극성, 불편 처리 등 환대서비스, 관광약자 배려와 편의시설, 휴식공간 등을 점검한다.또 관람객 증대를 위한 노력, 전년도 평가 지적 조치 결과 등도 평가에 포함된다.이번 평가는 현장평가(20%)와 암행평가(40%), 관광객 1대1 면접을 통한 만족도 조사(40%) 등으로 이뤄지며 우수관광지 8곳을 선정해 포상할 예정이다.지난해에는 제주 4·3 평화공원이 최우수 공영관광지로 선정됐다. kdm@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 4·3추념일 공영관광지 26곳 무료입장 허용 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 4·3추념일 공영관광지 26곳 무료입장 허용 등록 2018.03.29 10:10:38 작게 크게 【서울=뉴시스】 4.3 70주년 종합포스터. 2018.03.27. (사진= 제주 4·3 제70주년 범국민위원회  제공) photo@newsis.com 【제주=뉴시스】강정만 기자 = 제주특별자치도는 4·3추념일 하루 동안 26개 공영관광지를 무료로 입장을 허용한다고 29일 밝혔다. 이날 무료로 입장할 수 있는 공영관광지는 유료공영관광지 33곳 중 위탁 운영되는 곳 5곳, 당일 정기휴관인 1곳, 일시적 많은 입장객 관람이 불가한 1곳을 제외한 26곳이다. 도는 4·3추념일 무료입장과 더불어 입장객이 불편함이 없도록 주요관광지 안내 표지판 정비와 관광지 편의시설 점검, 직원 환대서비스를 높이기로 했다. 관광지별 홈페이지, 제주관광정보, SNS 등을 통해 무료입장을 홍보하고 관광홍보안내소와 안내센터를 통해 관광객 안내에 불편함이 없도록 할 계획이다. 무료입장할 수 있는 관광지는 다음과 같다. ▲제주도립미술관 ▲민속자연사박물관 ▲만장굴 ▲비자림 ▲제주돌문화공원 ▲교래자연휴양림 ▲제주해녀박물관 ▲현대미술관 ▲김창열미술관 ▲성산일출봉 ▲제주목관아 ▲노루생태관찰원 ▲절물자연휴양림 ▲서귀포자연휴양림 ▲서귀포이중섭미술관 ▲기당미술관 ▲천제연폭포 ▲천지연폭포 ▲정방폭포 ▲주상절리대 ▲서복전시관 ▲산방산 ▲감귤박물관 ▲서귀포천문과학문화관 ▲붉은오름자연휴양림 ▲치유의숲 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도-제주올레, “글로벌 생태관광 모델 만든다”…MOU 체결 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-제주올레, “글로벌 생태관광 모델 만든다”…MOU 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도-제주올레, “글로벌 생태관광 모델 만든다”…MOU 체결 기자명 고병수 기자 입력 2018.03.29 18:42 수정 2018.03.29 18:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 원희룡 “제주올레 세계적 생태관광 콘텐츠로 키우겠다” (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 제주형 글로벌 생태관광 허브 조성을 위해 사단법인 제주올레(이사장 서명숙)와 손을 잡았다.道는 29일 오전 11시 도청 별관 4층 자연마루에서 제주올레와 업무협약을 체결했다고 밝혔다.이날 협약은 지난 10년간 제주 올레길 조성·관리를 통해 지속 가능한 제주 환경 정책 발전에 기여한 제주올레와 제주도 간 지속적인 상호 유기적 협력 체제를 구축해 올레길을 통한 제주의 생태관광 활성화를 도모하기 위해 마련됐다.협약에 따라 양 기관은 ▲올레길 조성 및 관리·운영 ▲자연환경 보호 및 문화역사 자원 발굴·복원 ▲제주올레 브랜드 가치 활성화 ▲지역주민 참여형 생태관광 육성 및 일자리 창출 ▲생태관광 홍보 마케팅 및 캠페인 등에 상호 협력을 강화한다.제주도는 올레길 표지 및 시설물 설치·교체 등 올레길 환경정비와 유지보수, 홍보 등 올레길 조성 및 지속 가능한 관리 운영을 위한 행·재정적 지원과 지역 일자리 창출 사업을 전담한다. 제주올레는 올레길 조성과 함께 코스별 DB 구축, 인재양성 교육, 생태관광 콘텐츠 개발, 자원 봉사자 양성 등 올레길 운영 관리 전반에 대한 사업을 담당한다.원희룡 도지사는 이날 협약식에서 “제주올레를 대한민국을 넘어 세계적인 생태관광 콘텐츠로 성장 시키겠다”며 “제주만의 환경 가치와 문화 자원을 느낄 수 있게 하는 글로벌 생태관광의 모델을 만들어 제주 지역의 지속가능한 발전 원동력으로 삼겠다”고 말했다.서명숙 이사장은 “제주올레 길에는 인공적인 시설을 최소화 하고, 가장 안전한 길, 깨끗한 길을 유지하는데 행정의 힘이  필요하다”며 “한라에서 백두까지 이어지는 평화올레 사업을 추진하는데도 많은 협조 바란다”고 말했다.한편 올레길은 지난 2012년 11월, 21코스 개장을 기점으로 총 26개 코스(21개 정규코스와 5개 알파코스), 425㎞의 제주도 한 바퀴를 걸어서 여행하는 길로 완성됐다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광객, 체류일수·재방문율↑ 씀씀이↓ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 관광객, 체류일수·재방문율↑ 씀씀이↓ 파이낸셜뉴스입력 2018.03.29 17:43수정 2018.11.18 17:28 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 2017년 제주특별자치도 방문 관광객 실태조사 결과 제주관광공사 시내면세점 [제주=좌승훈기자] 제주를 찾는 관광객들의 체류일수와 재방문율은 늘었지만 씀씀이는 되레 감소한 것으로 나타났다. 제주관광공사(사장 박홍배)가 29일 발표한 ‘2017년 제주특별자치도 방문 관광객 실태조사’에 따르면, 체류일수가 내국인은 전년도의 4.12일에서 4.49일로, 외국인은 4.13일에서 4.39일로 소폭 상승했다. 반면, 1인당 지출비용은 내국인 관광객의 경우 54만307원으로 전년도에 비해 5만2124원 감소했다. 외국인 관광객도 1214.9달러(한화 약 129만6000원)로 전년도에 비해 251.9달러(한화 약 26만8000원) 감소했다. 특히 외국인 관광객 씀씀이가 크게 줄어든 것은 고고도 미사일 방어체계(THAAD·사드) 갈등 이후 내려진 금한령(禁韓令) 등의 영향으로 중국 관광객이 큰 폭으로 감소하면서 쇼핑비 비중이 크게 줄었기 때문으로 분석됐다. 제주 방문 목적은 내국인 및 외국인 관광객 모두 휴가·휴양이 가장 높게 나타났다. 내국인은휴가·휴양 75.0%, 사업·회의 5.4%, 친구·친지 방문 5.3% 순이었다. 외국인은 휴가·휴양 72.5%, 쇼핑 5.3%, 레저스포츠 3.9% 순으로 나타났다. 제주 재방문율은 내국인 69.8%, 외국인 19.8%로 전년도에 비해 각각 2.4%포인트, 7.5%포인트 증가했다. 한편 이번 실태조사는 국가승인통계로서 지난 2017년 제주국제공항, 제주여객터미널, 제주외항 크루즈 전용 부두 등에서 제주를 떠나는 만 15세 이상 관광객 1만2000여명을 대상으로 설문조사 방식으로 진행됐다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 내국인 관광객수 증가 반면 수익성 낮아어 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도 내국인 관광객수 증가 반면 수익성 낮아어 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도 내국인 관광객수 증가 반면 수익성 낮아어 기자명 한지형 기자 입력 2018.03.29 18:39 수정 2018.04.01 12:23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 자료사진. JTO 29일 2017 제주특별자치도 방문관광객 실태조사 결과 발표체류기간 늘었지만 지출경비 전년 59만2461원 대비 8.8% 줄어 제주를 찾은 내국인 관광객들의 체류일수는 증가한 반면 지출 경비는 줄어든 것으로 조사됐다. 이로 인해 내국인관광객이 증가해도 되레 사회적비용만 커지고 수익성 낮아지는 악효과가 우려된다. 제주관광공사(JTO)가 29일 발표한 '2017 제주특별자치도 방문관광객 실태조사'에 따르면 지난해 제주를 방문한 내국인 관광객들의 평균 체류기간은 4.49일로 전년 4.12일보다 0.37일 상승했다.재방문율 역시 2회 인상은 69.8%(전년 67.4%), 3회 이상은 15.6%(〃 15.9%), 4회 이상은 27.5%(〃 25.4%) 등 전반적으로 증가세를 기록하고 있다.반면 내국인 관광객들의 지출 경비는 전년에 비해 감소했다. 소셜커머스, 패키지 등 가격 대비 효율성이 높은 '가성비' 상품에 대한 선호도 상승이 지출 경비 감소의 원인으로 작용하고 있기 때문으로 분석됐다.결국 소셜커머스 업체의 제주여행상품 판매비중이 높아지면서 도내 온·오프라인 여행업체나 숙박·렌터카·관광지 등의 수익성은 악화될 수밖에 없다.지난해 1인당 평균 지출경비는 54만307원으로 전년 59만2461원 대비 8.8%(5만2154원) 줄었다.단체 관광객을 제외한 개별 관광객들의 평균 지출 경비는 2015년 57만1866원에서 2016년 59만4576원으로 2만2710 증가했지만, 2017년 53만5433원으로 집계되는 등 하락세로 전환했다.JTO 관계자는 "지출 경비에 대한 실태조사 방식이 바뀌면서 보다 정확한 수치가 산출됐다"라며 "특가로 여행 상품을 판매하는 소셜커머스에 대한 높은 선호도가 제주 여행비용을 낮추는 요인으로 작용하고 있다"고 말했다. 한지형 기자 my-yoshi@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광포럼 제1차 운영위원회의 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 관광포럼 제1차 운영위원회의 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 관광포럼 제1차 운영위원회의 개최 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2018.03.29 17:26 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 28일 설문대여성문화센터에서 '2018 제주관광포럼 제1차 운영위원회의를 개최했다.이 날 회의에서는 운영위원 위촉 및 제16차 제주관광포럼 주제 선정에 대한 논의가 진행됐다.운영위원은 총 11명 위촉됐으며, 공동대표 겸 운영위원장에는 제주대학교 오상훈 교수가 선출됐다.제16차 제주관광포럼 주제로는 '렌터카 총량제 시행에 따른 렌터카업 경쟁력 강화 방안 모색'이 선정됐다.위원들은 "렌터카 총량제 시행을 앞두고 며칠만에 1년치의 증차 요청이 있는 등 부작용이 발생하고 있다"며 "효율적으로 렌터카 수급을 조절해야 한다"고 전했다.이어 "렌터카 총량제 시행이 업계와 관광객, 도민 모두 만족할 수 있는 정책이 되길 바란다"며 "이번 포럼이 그 해답을 찾는 자리가 되기를 기대한다"고 말했다.한편, 제주관광포럼은 2012년 9월 27일 창립된 후 현제까지 15차에 걸쳐 개최됐다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사, 봄 축제 영상 공모전 개최 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-제주관광공사, 봄 축제 영상 공모전 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도-제주관광공사, 봄 축제 영상 공모전 개최 기자명 고병수 기자 입력 2018.03.29 18:48 수정 2018.03.29 18:53 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 제주관광공사(사장 박홍배)는 제주의 다양한 축제를 국내외 관광객들에게 홍보하고 관광객과 도민이 참여하는 참여형 콘텐츠 제작을 위해 ‘2018 제주 축제 영상 공모전’을 개최한다고 29일 밝혔다.이번 공모전은 ‘청춘감독 콘테스트’라는 부제로 4월에서 6월까지 개최되며 축제를 가는 과정부터 축제를 즐기는 스토리 라인으로 구성된 영상을 1~3분 내외로 제작해 개인 SNS에 업로드하고 공사 홈페이지에 신청서를 접수하면 된다.공모전은 관광객은 물론 도민 누구나 참여 가능하며 3월 30일부터 6월 29일까지 응모 가능하다.공모전 시상은 총상금 900만원으로 대상은 제주도지사상과 부상으로 상금 300만원이 수여되며 최우수 1편, 우수 2편, 입선 4편은 제주관광공사 사장상과 부상으로 상금이 수여되는 등 총 8개 작품이 선정 될 예정이다. 공사 관계자는 “공모전을 통해 관광객과 도민이 직접 만든 제주 축제 영상 콘텐츠가 참가자 개인 SNS와 제주관광공사 비짓제주를 통해 홍보 되고 지역축제가 더 생동감 있게 다가가 향후 그 축제를 가보고 싶다고 느끼게 하는 것이 이 사업의 목적”이라며 “많은 관광객과 도민이 참여할 수 있도록 홍보에 힘쓰겠다”고 말했다.문의= 제주관광공사 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 융자 97개 업체 200억원 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 관광진흥기금 융자 97개 업체 200억원 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, 관광진흥기금 융자 97개 업체 200억원 기자명 이승록 기자					(leerevol@naver.com) 입력 2018.03.26 10:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도는 올해 상반기 제주관광진흥기금 융자추천 대상으로 총 97개소 200억원을 확정, 도청 홈페이지를 통해 공고했다고 26일 밝혔다.     제주도는 지난 23일 제주관광진흥기금운용심의위원회를 개최해 이와 같은 내용을 심의 의결했다.2월12일부터 28일까지 11일간 융자신청 접수를 마감한 결과 총 118개소에 234억원의 신청이 있었다.분야별로 보면, 경영안정자금은 110개소 161억원, 건설자금은 3개소 16억원, 개보수자금은 5개소 57억원이 접수됐다.융자신청 접수 대상 업체에 대해 농어촌진흥기금이나 중소기업육성기금 등 타 기금 수혜여부, 행정처분 등의 사유로 인해 21개소 30억원이 추천대상에서 제외돼 최종 확정 규모는 97개소에 200억원이다.확정된 융자추천 내용을 구체적으로 살펴보면, 경영안정자금 분야가 92개소 143억원으로 가장 많은 비중을 차지하고 있다.경영안정자금 추천 업종별로는 관광숙박업 16개소 61억원, 여행업 9개소 8억원, 관광객이용시설업 3개소 4억원, 관광편의시설업 6개소 4억원, 유원시설업 1개소 3억원, 기타 일반숙박업 및 노후 전세버스 교체를 위해 57개소 63억원이 추천됐다.또한 개보수를 포함한 시설자금 분야의 경우는 5개소 57억원이며 이 중 미술관 및 관광식당업 신축 등으로 3개소에 16억원을, 관광 및 일반숙박업 개보수 2개소에 41억원을 추천 확정했다.융자 추천된 업체에서는 융자확정통지서를 융자취급 금융기관에 제출하고 오는 7월 31일까지 융자실행을 해야 한다.제주도 관계자는 "지난해 ‘사드’ 피해지원을 위한 230개소 307억원의 특별융자를 포함해 총 454개소 1117억원을 추천했고, 291건 2280억원에 대해서는 원금상환 유예했다"며 "하반기 관광진흥기금 융자지원 계획 추진 등 관광사업체 경영안정 도모와 도민의 실질적 수혜확대를 위한 기금운용 정책을 지속적으로 추진해 나갈 방침"이라고 밝혔다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도의회, '中 자본' 금수산장 관광단지 개발사업 가결 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도의회, '中 자본' 금수산장 관광단지 개발사업 가결 도의회 본회의 가까스로 통과…道 최종 판단 주목 (제주=뉴스1) 오미란 기자					| 2018-03-20 16:28 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주 신화련 금수산장 개발사업 부지.© News1 골프장 편법개발 논란을 빚고 있는 제주 신화련 금수산장 관광단지 개발사업이 결국 제주도의회를 통과했다.제주도의회는 20일 제359회 임시회 제2차 본회의를 열고 도의회 환경도시위원회를 통과한 '신화련 금수산장 관광단지 조성사업 환경영향평가서 협의내용 동의안'을 재석의원 31명 중 찬성 16명, 반대 8명, 기권 7명으로 가결했다.이 사업은 2020년까지 제주시 한림읍 금악리 일대 부지 86만6539㎡에 관광호텔(664실)과 콘도(48실), 골프아카데미, 골프코스, 컨벤션, 가든스파 등을 조성하는 사업이다.사업 주체는 중국 신화련 그룹의 자회사 홍콩 뉴실크로드가 설립한 신화련금수산장개발㈜(대표이사 텐펑)이다. 신화련금수산장개발은 이 사업에 총 7200여 억원을 투입할 예정이다.문제는 사업 시행사에 도내 골프장을 소유하고 있는 ㈜블랙스톤리조트가 10%의 지분을 갖고 주주로 참여하고 있다는 점이다. 블랙스톤리조트는 골프장 27홀 중 9홀을 매각한 데 따른 잔금을 회수할 때까지 주주로 참여키로 한 상태다.신화련금수산장개발은 매입한 골프장 9홀 중 6홀은 기존 골프코스로 유지하되 나머지 3홀은 가든스파, 골프아카데미 등으로 활용한다는 계획이다.그러나 이 같은 개발 방식은 도의회 환경도시위 심의·의결 과정에서 골프장 편법개발 논란을 낳았다.현재 도내 골프장들의 경영이 악화되고 있는 상황에서 이 사업을 신호탄으로 기존 골프장을 활용한 개발사업이 연쇄적으로 이뤄질 것이라는 우려 때문이었다.이에 도의회 환경도시위는 앞선 임시회에서 두 차례 보류 결정을 내린 바 있으나, 이번 임시회에서는 △카지노 확장이전 행위 제한근거 마련 △경관3등급 지역 건축물 높이 12m(3층) 제한 △양돈장 이설 및 폐업 보상 등 12개 부대의견을 달아 도가 제출한 동의안을 원안 통과시켰다.이를 두고 제주경제정의실천시민연합과 제주환경운동연합, 강기탁·박희수 더불어민주당 제주도지사 예비후보 등 일부 시민사회단체와 정치권에서는 본회의 직전까지 강한 비판을 쏟아내기도 했다.결국 이날 '원안 통과'로 도의회 동의 절차가 마무리되면서 최종 판단은 원희룡 지사에게로 넘어간 가운데, 6·13 전국동시지방선거를 앞두고 원 지사가 어떤 결정을 내릴 지 주목되고 있다. mro1225@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 농어촌 융합 마을주도형 관광지 들어선다 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 로봇 이데일리 단독 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 팜이데일리 마켓in 스냅타임 제주도, 농어촌 융합 마을주도형 관광지 들어선다 등록 2018-03-19 오전 9:03:58 수정 2018-03-19 오전 9:03:58 가 가 이순용 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 [이데일리 이순용 기자] 오는 2025년 개항하는 제주 신공항 인근 서귀포시 성산읍 난산리가 마을주도형 관광지로 조성된다. ‘난산리’ 는 해양수산부 (김영춘 장관), 제주시와 함께 총 20억원 규모로 로컬푸드형 농촌 관광마을을 개발하기로 했다. 이중 17억원은 국비와 지방자치단체 예산으로 지원하고 3억원은 ‘난산리’ 자체 부담한다.제주시의 ‘2018년 일반 농산어촌개발 신규 사업지구’ 로 선정된 ‘난산리’ 는 2018년부터 2021년까지 난산리 마을 특화 사업인 ‘해피팜’ 프로젝트를 시행한다. 이를 통해 주력 사업인 농수산테마파크를 중심으로 인근 어촌마을과의 융복합 푸드상품개발, 집객 부대시설 확중, 마을 게스트하우스 운영, 북 카페 등을 조성하고 국내외 관광객 유치와 주민들의 생산적인 경제활동 기반을 마련하게 된다. 난산리 마을 특화 사업인 ‘해피팜 프로젝트’ 는 국내 최초 농어촌 결합 협력사업으로 추진 되는데 어업자원이 풍부한 인근 마을들의 특산물 가공사업, 푸드체험, 레포츠, 씨푸드뷔페 유치 등 체험형 관광인프라 시설을 구비하는 마을 주도형 관광개발 사업이다. 홈스테이 방식으로 운영되는 농수산테마파크는 농어업자원을 결합한 멀티콘텐츠 상품으로 이 지역 대표 로컬푸드인 난산리 흑돼지 소시지와 맛살어묵, 동치미국수를 직접 요리하는 쿠킹체험 프로그램이다. 김길호 난산리 이장은 “해피팜 개발사업은 난산리 농촌문화와 인근 마을 어촌문화를 융합한 멀티콘텐츠 관광문화사업으로 향후 난산리를 제주의 대표 체험관광지로 조성할 계획이며 지역활성화로 일자리와 소득창출에 큰 기여를 할 것으로 기대한다” 고 전했다. 따라서 난산리는 성산읍 배후 어촌마을들과 협력체계로 연결되어 어촌특산물 직매입, 상설야시장 운영, 특화농수산 상품 등 농수산물을 한 곳에서 즐기는 로컬푸드형 관광플랫폼을 구축하게 된다.위성곤 제주 서귀포시 더불어민주당 의원은 “향후 제주도 농산어촌 개발사업 등 마을 주도형의 새로운 콘텐츠 사업이 확대 시행 됨에 따라 지역경제 활성화를 위해 국회차원의 지원을 아끼지 않겠다” 고 밝혔다.제주시와 난산리는 이번 해피팜 프로젝트를 통해 제주를 찾은 관광객에게 다양한 볼거리와 즐길거리를 제공하는 경쟁력 있는 관광상품 개발과 농, 어업 청정 특산물을 융합한 월동무가공공장 건립 등 신규사업 지역유치를 원(One) 시스템으로 묶는 융합형 관광인프라를 확대해 나간다는 계획이다. 주요뉴스 "내 노후 어쩌나" 국민연금 상반기 적자 76조 6600억 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 선우은숙, 4살 연하 유영재 아나운서와 재혼 혼인신고 마쳐 [공식] 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2[누구집]남궁민 7년 열애끝 웨딩마치, 신혼집은? 3선우은숙, 4살 연하 유영재 아나운서와 재혼 "혼인신고 마쳐" [공식] 4“혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 53선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 카드뉴스[카드뉴스] 2022년 10월 11일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토]'파퀴아오와 대결' DK YOO "기부 경기지만 진짜로 싸우겠다" [포토]깊어가는 가을을 즐기세요! [포토]'국정감사 출석하는 최재해 감사원장' [포토]간담회에서 발언하는 김현숙 여가부 장관 [포토]오세훈 시장, 2022 서울워크에서 청년들과 '토크 콘서트' [포토]대체공휴일에 열린 집회 [포토]건강한마당, 댄스 배우는 시민들 [포토]쌀쌀해진 날씨, 겨울옷 입은 나무들 [포토]상춘객 유혹하는 하얀 코스모스 [포토]금리인상에 '영끌'은 옛말...2030 서울 아파트 매입 비중 '뚝' 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2 “혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 3 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 4 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 5 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 6 대통령 직접 방문했지만…국공립 어린이집 예산 19% 삭감 7 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 8 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 9 송가인, 목포콘서트→팬미팅 '바쁘다 바빠' 10 '음주측정 거부 체포' 신혜성 "변명의 여지 없다..죄송" 1 삼성전자마저…코스피, 3분기 실적 대참사 시작되나 2 "금리 급등하는 지금이 적기" vs "섣불리 덤볐다가 큰코다쳐" 3 스팩합병 전성시대…역대급 흥행에 덩치 커진다 4 글로벌 기업들 ESG 속도 내는데 G에 발묶인 한국 5 KPMG, '아시아 최우수 리스크 컨설팅펌' 선정 6 [미리보는 이데일리 신문] 수리남 제작사도 참패…고금리에 기업 돈줄 마른다 7 상장사 10곳 중 1곳 주가 1년새 '반토막' 8 [뉴스새벽배송]월가 황제 “S&amp;P 3000선 붕괴”…미 증시 또 약세 9 美 CFA협회 "ESG 자격증 도입, 韓 거버넌스 개선 기대" 10 HLB생활건강 "새치 커버 샴푸에 논란중인 염모제 성분 없어" 1 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 2 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" 3 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 4 '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 5 '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 6 '아바드림' 오승근, 故 김자옥과 생사초월 듀엣 감동 7 '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 8 '미우새' 김준호, 조기 퇴근 걸고 처절한 몸부림 '폭소' 9 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' 10 '삼식이 삼촌' 송강호→변요한·이규형·서현우 캐스팅 라인업 완성 [공식] 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 코아스템 “자사 루게릭병 치료제, 대조군比 생존기간 5.6년 길어”...FDA 통과 ‘청신호’ 스무살의 설레임 스냅타임 왼쪽 오른쪽 유튜브 고유 아이디 ‘핸들’ 기능 추가...이름쟁탈전 벌어질까 2022년 10월 11일 오늘의 운세 2022년 10월 10일 오늘의 운세 경기도, 도민과 함께 576돌 ‘한글아 놀자’ 행사 ‘고딩엄빠’는 환상, 이 잔인한 통계를 보라 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 이제부터가 진짜 하락장이다 JW중외제약, 1500억 혈우병 치료제 시장 통째로 삼킨다 아름다운 빛으로 풀어낸 정조의 꿈 수원, 정조의 발자취를 따라서 1기 신도시 마스터플랜이 뭐길래 두근두근 핫포토 우승 가자! 北 전술핵운용부대 '드레스를 조심해' "어이가 없네" 왼쪽 오른쪽 나이스 샤아앗~ㅣ골프in [포토]박민지 '시즌 5승 만들어준 볼입니다' 당신의 드림카는?ㅣ오토in 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 "비위판사 연금 깎겠다던 법원, 여론 잦아들자 '도입 불가'"[2022국감] 이슈기획 ㅣ 금리 인상 여파 "한은 금통위, 10월 이어 11월도 빅스텝 나설 듯" 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? 수억씩 `뚝뚝`…부동산 한파에 뉴타운도 ‘악’ 소리 이슈기획 ㅣ 尹 대통령 비속어 파문 尹대통령 “그냥 먹어도 되나?”… 김남국 “큰형님 마냥 습관적 반말” 이슈기획 ㅣ 신당역 역무원 피살 사건 '신당역 스토킹 살인' 전주환, 오는 18일 재판절차 시작 오늘의 주요 기사 월가 황제 "고통 속 S&amp;P 3000선 붕괴"…바닥 안 보인다 "내 노후 어쩌나" 국민연금 적자 '76조 6600억' 정진석 “조선은 썩어서 망해”…野 “친일 앞잡이, 천박” 맹비난 .국감 취재하던 기자, 화장실서 심정지로 쓰러져…병원 이송 .선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" .쇼핑몰 대박 난 강민경, '65억 건물' 매입해 신사옥 입주 ."尹, 한동훈 애정어린 눈으로"...'이재명 대북코인' 부메랑? .상폐 심판대 선 신라젠..16만 개미 눈물 닦을까 .코레일, GTX 개통 시 연간 1000억원 손해…재무건전성 ‘빨간등’ 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 - 현대삼호중공업 LNGC 1척 수주…계약금액 3468억원 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>제주도관광협회 옥상옥 상근이사직 신설 논란 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도관광협회 옥상옥 상근이사직 신설 논란 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도관광협회 옥상옥 상근이사직 신설 논란 제주CBS 박정섭 기자 메일보내기 2018-03-21 15:54 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 이사와 사무본부 교량 역할?…중임 가능한 회장 연임 제한도 논란 21일 열린 제주도관광협회 제2차 대의원총회. 제주도관광협회가 상근이사직을 신설하고, 회장 연임을 3선까지 제한하기로 정관을 고쳤다. 하지만 예산 절감을 이유로 폐지했던 상근이사직을 새로 만들어 옥상옥인데다 회장 연임 제한 규정도 중임은 가능해 눈가리고 아웅이란 지적을 받고 있다.제주도관광협회는 21일 오전 2018년 제2차 이사회와 제2차 대의원총회를 열고, 비상근직 회장을 대리해 사무본부 운영 총괄 등 업무수행을 위한 '상근이사' 직제를 신설했다.상근이사는 이사와 사무본부와의 교량 역할을 하기 위한 것으로, 2급 계약연봉직으로서 회장의 지명을 통해 이사회의 동의를 얻을 계획이다.하지만 제주도관광협회는 2012년 3월 실무중심의 협회 운영과 예산 절감 차원에서 상근이사에 해당하는 상근부회장직을 폐지한 바 있어 앞뒤 논리가 엇박자를 내고 있다.더욱이 현재 회장 밑에 제주도가 파견한 본부장과 함께 자체 승진한 부본부장까지 둔 상황에서 상근이사직을 신설, 결국 상근이사가 옥상옥에 지나지 않는다는 지적이다.한해 제주도로부터 100억원 가량의 예산을 지원받고 있는 제주도관광협회의 상근이사 연봉은 8천만원 안팎이 될 것으로 보인다.회장 연임을 3선(9년)까지만 가능하도록 개정한 정관 역시 논란이 크다. 3선만 제한을 했을 뿐 3선을 마친 회장이 한 차례의 선거를 쉰 뒤 차기 선거에 당선되는 것을 제한하지 않고 있어 연임 제한이 허명의 문서로 전락할 우려를 낳고 있다는 지적이다. 제주도관광협회는 또 참정권 확대 차원에서 선출직 대의원수를 현재 132명에서 180명으로 확대하기로 했다.제주도관광협회측은 "상근이사직 신설은 관광협회 사무국 직원이 이전보다 2배 이상 늘어 필수불가결한 부분"이라며 "회장직 연임 제한 역시 중임이란 게 현실상 녹록지는 않을 것"이라고 밝혔다.협회장 간접선거를 지양, 관광협회 모든 회원이 참석하는 직선제 선거로의 전환 필요성에 대해선 "회원이 1000명이 넘어서면서 총회를 열 경우 성원의 어려움으로 인해 시행이 쉽지 않다"고도 했다.이날 의결된 정관은 제주도의 승인을 거칠 예정이다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 복지장관 340만원, 청년 120만원…연금의 '세대격차' 이복현 금감원장 "불확실성 상시감시, 금융시스템 안정 최선" 정진석, 김용민 '尹정부 퇴진'주장에 "민주당 공식 입장인가" 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 러, 우크라 폭격 '보복' 인정…"푸틴 자존심 상처 때문" 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 말聯 국제관광전 참가 “무슬림 프렌들리 제주” - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 말聯 국제관광전 참가 “무슬림 프렌들리 제주” 파이낸셜뉴스입력 2018.03.19 11:26수정 2018.03.19 11:28 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 지난해 말 제주-쿠알라룸푸르 직항 개설제주여행상담 160건 진행…현지 호응 커 제주도는 지난 3월 16일~18일 말레이시아 쿠알라룸푸르에서 열린 말레이시아 국제관광전(MATTA FAIR 2018)에 참가해 관광객 유치를 위한 다양한 홍보활동을 펼쳤다. [제주=좌승훈기자] 제주도는 지난 3월 16일~18일 말레이시아 쿠알라룸푸르 푸트라월드트레이드센터(Putra World Trade Center, PWTC)에서 열린 말레이시아 최대 규모의 국제관광전(National MATTA Fair)에 참가, 무슬림 관광객 유치를 위한 홍보활동을 적극 전개했다. 이번 국제관광전에는 제주도를 비롯해 제주관광협회와 12개 업체(여행사 4곳, 호텔 5곳, 관광사업체 3곳)가 참가한 가운데, 방문객을 대상으로 여행 상담과 계절 관광상품 홍보, 현지 여행사 대상 세일즈 콜 등의 판촉활동을 펼쳤다. 제주홍보부스. 이번 행사 기간동안 인센티브 투어, 웨딩투어, 사이클 투어 및 VIP상품 개발에 대해 현지 여행사와 160건의 상담을 진행했다. 특히 지난해 말 제주와 쿠알라룸푸르를 잇는 직항 노선이 개설됨에 따라 제주부스 운영에 따른 현지 반응도 컸다. 지난 17일에는 말레이시아 국영 방송사인 브르나마(Bernama)가 생방송으로 제주부스 운영 상황을 시청자들에게 전달했다. 현학수 제주도 관광정책과장은 이날 인터뷰를 통해 제주의 다양한 축제문화와 함께 ‘무슬림 프렌들리 제주(Muslim Friendly JEJU)’ 사업을 소개했다. 행사기간 동안 제주부스를 찾은 방문객은 1300명을 웃돌았다. 도는 이들에게 4.3 70주년 제주방문의 해를 맞아 4.3 홍보 활동 뿐 아니라, 축제와 마라톤, 시티투어를 활용해 특수 목적 관광객(SIT) 유치 활동에 적극 나섰다. 말레이시아 국영 방송사, 브르나마는 행사기간 제주부스 운영을 생방송으로 시청자들에게 전달했다. 제주관광협회는 말레이시아 차이니즈 관광협회(MCTA)와 성주일보(Sin Chew Daily) 관계자들과 함께 마라톤 홍보 방안을 논의했다. 또 이번에 함께 참여한 관광업체들도 인센티브 투어, 웨딩투어, 사이클 투어 및 VIP상품 개발에 대해 현지 여행사와 160건의 상담을 진행했다. 현학수 관광정책과장은 “지난해 12월 에어아시아엑스의 제주 직항 취항을 계기로 말레이시아가 제주관광산업의 블루오션으로 부각되고 있다”며 “특히 인구 증가와 경제 성장에 따른 소비력이 높아 ‘무슬림 프렌들리 제주’ 사업을 토대로 동남아 관광객 유치 활동을 역점 추진해 나가겠다”고 말했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 17억들여 관광약자 이용시설 대폭확충 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 17억들여 관광약자 이용시설 대폭확충 등록 2018.03.15 09:56:12 작게 크게 【제주=뉴시스】 제주특별자치도청 전경. (사진=뉴시스DB)【제주=뉴시스】강정만 기자 = 제주특별자치도는 관광약자들을 위해 '장애물 없는 관광환경' 조성사업을 추진한다고 15일 밝혔다. 도는 17억5000만원을 투입해 도내 관광지와 관광사업체를 대상으로 6개 사업을 추진한다. 한라산국립공원 등 공영관광지 9곳에 화장실과 점자블럭 확충, 경사로와 진입로·관람로 개선, 연속 손잡이 등 관광약자를 위한 전용시설을 확충하고 보강한다. 또 범죄예방을 위해 개방형 공영관광지를 대상으로 범죄취약구역을 조사해 CCTV를 설치한다. 사설관광지와 음식점, 숙박업 등 관광사업체를 대상으로 관광약자 편의시설 정비사업을 수요조사를 한 후 희망하는 업체에는 경사로 정비와 장애인 화장실 개선사업, 휠체어와 유모차 등 편의시설 장비 구입비 일부를 지원한다. 이 곳에 관광약자 전용 리프트차량인 전세버스 3대와 승합차 5대를 구입할 수 있도록 8억5000만원을 지원한다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제2차 이사회·대의원총회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 제2차 이사회·대의원총회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 제2차 이사회·대의원총회 개최 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2018.03.21 14:08 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(협회장 김영진)은 21일 시리우스 제주호텔 연회장에서 2018년도 제2차 이사회와 제2차 대의원총회를 개최했다.이 날 이사회 및 대의원총회는 정관에 따른 제34대 임원구성, 고문 및 자문위원회 구성의 건을 보고하고, 임기가 만료된 재정위원회 및 인사위원회를 구성했다또 사무본부 운영 총괄 등 원활한 업무수행을 위한 상근이사 직제를 신설하고, 선출직 대의원수를 현행 132인에서 180명으로 확대했으며 이에 따른 임원 정수를 증원했다. 더불어 회장 연임 제한 내용을 주요 골자로 한 정관개정을 의결하고 이에 맞게 맞게 협회 내부규정을 개정했다. 한편, 이날 김영진 협회장은 협회 신임 임원진들 및 대의원들과 함께 2018년도 사업추진을 구체화하고, 선거 공약사항 이행을 위한 방향을 논의했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>포항 소방관, 제주도서 여성관광객 성폭행 시도 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 포항 소방관, 제주도서 여성관광객 성폭행 시도 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 포항 포항 소방관, 제주도서 여성관광객 성폭행 시도 포항CBS 김대기 기자 메일보내기 2018-03-20 08:42 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 포항북부소방서 소속 소방관이 제주에서 여성관광객을 대상으로 성범죄를 일으켜 경찰의 조사를 받고 있다. 제주동부경찰서는 제주도 게스트하우스에서 마련한 파티에서 만난 20대 여성관광객 A씨를 성폭행하려 한 혐의로 이 모(29)씨를 붙잡아 조사하고 있다고 19일 밝혔다.경찰에 따르면 이씨는 지난 11일 오후 10시 30분쯤 제주시 구좌읍 한 게스트하우스 인근 해변에서 A씨를 성폭행하려 한 혐의이다.A씨는 저항하는 과정에서 무릎과 팔에 찰과상을 입었다.이씨는 다음날인 12일 새벽 12시 35분쯤 경찰에 긴급체포됐으며, 경찰조사에서 “술에 너무 취해 그런 행동을 한 것 같다”고 진술한 것으로 알려졌다.한편, 이씨는 사건 발생 이후 대민업무에 배제됐으며, 소방서 징계위원회에 회부될 예정이다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 복지장관 340만원, 청년 120만원…연금의 '세대격차' 이복현 금감원장 "불확실성 상시감시, 금융시스템 안정 최선" 정진석, 김용민 '尹정부 퇴진'주장에 "민주당 공식 입장인가" 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 러, 우크라 폭격 '보복' 인정…"푸틴 자존심 상처 때문" 포항CBS 김대기 기자 메일 네이버 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 골프종합전시회서 제주골프 홍보관 운영 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 골프종합전시회서 제주골프 홍보관 운영 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 골프종합전시회서 제주골프 홍보관 운영 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2018.03.22 15:48 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회는 '제23회 한국골프종합전시회 KOGOLF 2018'에 참가해 제주골프 홍보관을 운영한다고 22일 밝혔다.홍보관에는 스프링데일골프, 우리들CC, 오라CC, 라온GC 등 지역내 골프장이 참가해 THE CJ CUP을 홍보하는 등 골프 관광객을 유치하기 위한 마케팅을 전개할 계획이다.THE CJ CUP은 오는 10월 중 제주 나인브릿지에서 개최되는 PGA TOUR 정규대회다.제주도관광협회는 앞으로도 힐링페어 2018, 케이페스티발 2018, 내 고향 페스티벌 등 특수 목적형 박람회에 참가해 국내 개별관광객 유치 확대를 위한 홍보를 전개할 방침이다.한편 '제23회 한국골프종합전시회 KOGOLF 2018' 22일부터 오는 25일까지 서울 코엑스에서 개최된다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도내 관광업계와 OTA간 비즈니스 확대 가능성 확인 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도내 관광업계와 OTA간 비즈니스 확대 가능성 확인 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도내 관광업계와 OTA간 비즈니스 확대 가능성 확인 기자명 고병수 기자 입력 2018.03.17 14:09 수정 2018.03.17 14:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 道,공사, 도내 관광산업전과 채용박람회 육성 '호텔쇼 &amp; OTA트래블마트 in 제주' 성료 (제주=국제뉴스) 고병수 기자 = 제주관광산업전 &amp; 채용박람회 '호텔쇼 &amp; OTA트래블마트 in 제주'가 15일부터 17일까지 국내외 관광업계 관계자 약 500여명이 참석한 가운데 개최되고 있다.OTA트래블마트, 전시회, 채용박람회, 컨퍼런스(OTA전문, 호텔산업전문) 등 크게 4가지의 행사가 개최된 이번 행사는 스마트관광과 제주 관광업계의 결합이라는 신선한 주제로 진행됐다. 특히 지난 15일과 16일 양일 간 개최된 OTA트래블마트에서는 일본, 대만, 홍콩 등 5개국 총 27명의 바이어가 참석해 약 100명의 도내 셀러들과 함께 총 200건의 비즈니스미팅이 개최되어 성황을 이뤄졌다.한편 15일부터 17일까지 제주국제컨벤션센터 1층에서 개최되는 전시회에서는 도내 호텔업 관련 객실용품, 기자재, 외식관련, 위생·욕실, 냉·난방, 인테리어, IT, 투자&amp;개발 분야 등 120개사 250부스가 참가했다.같은 날 오후 3층 한라홀B에서는 제주관광공사, 제주창조경제혁신센터, 제주신화월드, 메종글래드제주 호텔 등 9곳의 도내 관광업계들이 참가한 채용박람회가 개최돼 약 200여명의 도내 대학생 및 구직자들과 뜨거운 상담을 벌였다. 16일 오전 10시 한라홀A에서는 OTA전문 컨퍼런스가 개최돼 도내 관광업계 관계자 200여명이 참가한 가운데 OTA, 온라인마케팅 등 최근 세계관광산업을 이끌고 있는 트렌드를 접할 수 있는 기회를 제공했다.2018 호텔쇼&amp;OTA트래블마트 in 제주 사업추진위원회의 홍성화 위원장은 "준비기간이 그리 길지 않은 상황에서도 업계의 도움으로 무사히 행사를 마무리 할 수 있었다“며 ”향후에는 참여 바이어의 국가와 수의 확대를 통해 도내 관광업계의 글로벌 경쟁력을 키워나가는데 기여할 수 있도록 하겠다“고 말했다.제주관광공사 박홍배 사장은 “이번 행사를 통해 국내외 OTA와 도내업계 간에 비즈니스에 대한 수요가 크다는 것을 알게 되었다”며 “향후 지속적으로 도내업계와 국내외 업계 간의 비즈니스의 장을 마련해나갈 것이다. 이를 통해 관광산업의 성장으로 인한 실질적인 성과가 제주도민에게로 돌아갈 수 있도록 최선의 노력을 다하겠다”고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제34대 자문위원회 15명 위촉...본격 운영 돌입 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제34대 자문위원회 15명 위촉...본격 운영 돌입 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 제34대 자문위원회 15명 위촉...본격 운영 돌입 기자명 고병수 기자 입력 2018.03.17 13:33 수정 2018.03.17 13:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회(회장 김영진)는 16일 제주웰컴센터 2층 회의실에서 제 34대 자문위원 15명을 위촉하고 본격적인 운영에 돌입했다고 밝혔다.이날 자문위원회에서는 위원들에 대한 위촉장 수여식을 시작으로 관광협회 일반현황 및 중점추진사업 보고, 자문위원회 위원장 선출, 관광협회 및 제주관광 발전방향에 대한 자유토론을 진행했다.자문위원회 위원장에는 주)미래제주 김동완 회장이 선출됐다. 또한 자문위원회의는 제주종합비즈니스센터 건립, 시티투어버스 운영, 시장다변화를 위한 인도, 무슬림 등 관광시장 공략 방안에 대해 논의했다. 한편 자문위원회는 협회 내 4대 위원회 중 하나로, 사업계획 수립 및 평가에 참여해 조언, 권고 및 자문활동을 통해 관광협회와 제주 관광산업의 성장·발전에 기여할 목적으로 연중 운영된다.관광협회 관계자는 “앞으로도 도내 관광사업체들의 경영환경 개선 및 경쟁력 강화를 위해 주기적으로 자문위원회 회의를 개최해 다양한 의견 수렴 등을 통해 업계 발전시책사업에 반영해 나갈 예정”이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>김영진 제34대 제주도관광협회장 취임 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 김영진 제34대 제주도관광협회장 취임 등록 2018.03.02 15:16:50 작게 크게 【제주=뉴시스】조수진 기자 = 2일 오후 제주시 연동 제주웰컴센터 3층 대회의실에서 김영진 제34대 제주도관광협회장 취임식이 열리고 있다. 2018.03.02. (사진=제주특별자치도관광협회 제공)“제주관광 질적 성장에 맞춰 실천 전략 수립할 것” 【제주=뉴시스】조수진 기자 = 제주특별자치도관광협회장 4선에 성공한 김영진 회장이 2일 취임했다. 제주도관광협회는 이날 오후 제주시 연동 웰컴센터 3층 대회의실에서 관광협회 업종별 분과위원장, 대의원, 협회 직원 등 100여명이 참석한 가운데 신임 회장 취임식을 개최했다고 밝혔다. 김영진 회장은 “이번 임기는 제주관광에 있어 매우 중요한 시기”라며 “올해는 특히 6·13 지방선거 등 불안정한 관광 환경과 중앙 정부의 외국인 관광객 분산 정책으로 녹록치 않은 한 해가 될 것”이라고 전망했다. 이어 “제주도정이 지향하는 관광시장의 질적 성장 흐름에 맞춰 관광객의 만족도 제고, 도민의 수익 향상, 관광사업체의 경쟁력 강화 등에 초점을 두고 구체적인 실천 전략을 수립해 나가겠다”고 강조했다. 김영진 회장은 지난 13일 ‘2018년 제주도관광협회 제1차 정기 대의원총회’에서 열린 제34대 회장 선거에서 이날 참석한 대의원 110명의 만장일치로 선출됐다. 이로써 김 회장은 지난 2011년 제31대 회장 보궐선거에서 당선된 뒤 이번 34대까지 4선 연임하게 됐다. 제주도관광협회 정관에 따르면 회장 임기는 3년이며 연임 제한 규정은 없다. susie@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 경기도 판교서 제주홍보관 운영 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 경기도 판교서 제주홍보관 운영 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 경기도 판교서 제주홍보관 운영 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2018.03.15 17:08 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 오는 16일부터 18일까지 현대백화점 판교점에서 개최되는 '판교, 제주를 품다. 제주파라다이스' 행사에 참가해 제주관광 홍보관을 운영한다고 밝혔다.'판교, 제주를 품다. 제주파라다이스'는 현대백화점 판교점이 주최하는 행사로, 여행 수요가 높아지는 봄철을 맞아 제주를 홍보하기 위해 기획됐다. 제주도 관광협회는 제주관광 홍보관을 통해 '제주특별자치도 관광기념품 공모전' 수상작을 전시·홍보하고 제주여행 종합쇼핑몰 '탐나오(www.tamnao.com)'회원을 유치하기 위해 이벤트를 진행할 계획이다.또 제주도 항공, 숙박, 렌터카, 관광지 예약을 문의하는 방문객을 대상으로 탐나오 어플을 통한 제주관광 할인 예약을 상담을 지원할 방침이다.특히 17일부터는 '4.3 70주년 2018 제주 방문의 해'를 맞이 전국민 4.3 알리기 운동의 일환으로 제작된 제주4.3 동백꽃 뱃지를 홍보관 방문자에게 배부할 계획이다.제주도 관광협회 관계자는 "앞으로도 다양한 홍보행사에 참가해 제주도의 다양한 관광 자원을 알리고 현장 밀착형 홍보를 활성화 할 수 있도록 적극 앞장서겠다"고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
   </si>
   <si>
     <t>제주도, 중국發 관광위기 “동남아 인센티브 투어가 답” - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 중국發 관광위기 “동남아 인센티브 투어가 답” 파이낸셜뉴스입력 2018.03.06 10:48수정 2018.03.07 02:18 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 아시아·태평양지역  마이스시장 중점 개척올들어 베트남·말레이시아 기업 잇단 유치 제주를 찾은 동남아시아 인센티브 투어단. /사진=제주도 제공 [제주=좌승훈기자] 제주특별자치도가 중국 정부의 방한 금지 조치에 따라 동남아시아 마이스(MICE) 관광객 유치에 총력을 기울이고 있는 가운데 올 3월부터 베트남 최대 페인트회사인 4Orange 그룹과 말레이시아 식음료 회사인 Pacific Food Products가 제주를 찾는 등 신규 마이스(MICE) 시장 유치 전략이 실질적인 성과로 이어지고 있다. 도와 제주컨벤션뷰로(이사장 양기철)에 따르면, 베트남 4Orange그룹 인센티브 투어단 240명이 오는 8~10일 제주를 방문한다. 4Orange그룹은 앞서 지난 2015년 3월에도 1148명의 인센티브 투어단을 제주에 보낸 바 있다. 이는 중국 외 국가의 기업으로서는 최대 규모다. 말레이시아의 Pacific Food Products가 추진하고 있는 인센티브 투어는 3월부터 7월까지 7개 그룹으로 나눠 진행된다. 이번에 제주도를 방문하게 될 인센티브 투어단 규모는 200명이다. 제주를 찾은 동남아시아 인센티브 투어단. /사진=제주도 제제공 특히 말레이시아는 제주와 쿠알라룸푸르 직항 노선 개설로 접근성이 개선돼 향후 인센티브 투어 시장이 지속적으로 확대될 것으로 전망되고 있다. 한편 도와 제주컨벤션뷰로는 동남아시아를 대상으로 아세안 지역 MICE 전문 박람회 제주 독립부스 운영, 아시아 태평양 지역 MICE 로드쇼 참가, 제주MICE산업대전 개최 시 동남아 지역 바이어 초청 등 신규 마이스(MICE) 시장 개척에 진력해 왔다. 양기철 도 관광국장은 “MICE 분야가 제주관광의 질적 성장 뿐 만 아니라 시장 다변화를 선도하고 있다”며 “MICE 산업의 한 축인 인센티브 투어 활성화를 위해 아시아 태평양 지역을 대상으로 지속적으로 행정력을 집중해 나가겠다”고 말했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
   </si>
   <si>
-    <t>따뜻한 봄 맞이한 제주도 서귀포, 중문 관광과 흑돼지구이 맛집 코스도 필수 - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-04 06:05 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 따뜻한 봄 맞이한 제주도 서귀포, 중문 관광과 흑돼지구이 맛집 코스도 필수 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 따뜻한 봄 맞이한 제주도 서귀포, 중문 관광과 흑돼지구이 맛집 코스도 필수 유지형 승인 2018.03.21 16:05 수정 2018.03.21 16:05 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × 올해 벚꽃 개화시기가 평년보다 1~2일 정도 빠를 것으로 예상되는 가운데, 오는 24일 제주 서귀포에서 드디어 올해 첫 벚꽃을 볼 수 있을 전망이다.벚꽃이 만개하는 데는 개화 후 일주일 정도 시간이 걸리기 때문에 서귀포에서는 오는 31일 만발한 벚꽃을 볼 수 있게 될 예정이다. 벚꽃 절정을 맞는 31일부터 내달 8일까지 전농로 벚꽃길에서는 다양한 먹거리 장터와 플리마켓이 열리는 ‘왕벚꽃 축제’가 개최된다.이외에도 제주에서는 4월 7일~4월 15일까지 제주유채꽃축제가 서귀포시 가시리 조랑말체험공원에서 열리며, 4월 10일~5월 10일까지 가파도청보리축제가 열릴 예정이다. 또한 지난 3월 1일부터 개최된 상효원튤립축제는 내달 8일까지 개최되어 남은 시일 동안에도 상효원의 아름다운 튤립 경관을 감상할 수 있다.이처럼 다양한 축제들이 한창인 제주도는 꽃놀이뿐만 아니라 관광지들도 많아 취향대로 원하는 여행코스를 계획할 수 있다. 관광도 관광이지만 여행 하면 빠질 수 없는 먹방도 제주에서라면 더욱 완벽하게 즐길 수 있다.특히 관광객들이 가장 많이 찾는 곳으로 알려진 제주도 서귀포 중문단지에는 소문난 흑돼지구이 맛집들이 많은 편이다. ‘돈가득’도 그 중 하나로 다른 곳과는 달리 고기를 굽기 전 복분자를 흑돼지 위에 뿌려줘, 잡내 없는 고기를 맛볼 수 있는 것이 특징이다.참숯전문점으로 숯 향이 가득 배인 두툼한 흑돼지 목살, 오겹살을 즐길 수 있으며, 고소한 버섯과 흑돼지로 만든 소시지를 함께 제공하여 같이 구워먹을 수 있도록 했다. 흑돼지구이와 궁합이 좋은 멜젓과 깻잎 무침, 파무침도 함께 제공되어 흑돼지 특유의 식감과 감칠맛을 더욱 제대로 느낄 수 있다.근고기가 아닌 인분 단위로 판매하여 선택의 폭이 넓으며 흑돼지불고기전골도 판매하여 든든한 식사를 즐길 수 있다. 이와 더불어 점심특선으로 전복이 들어간 돼지불고기정식, 된장찌개와 김치찌개도 판매하고 있다.한편 ‘돈가득’은 MBC 에브리원 ‘맛있을 지도’에 제주도 서귀포 중문 흑돼지구이 맛집으로 방영되어 화제가 된 바 있다. 매일 점심 12시부터 저녁 11시까지 운영되고 있으며, 대포주상절리, 천제연폭포, 여미지식물원, 중문색달해수욕장 등 제주 가볼만한곳과 접근성이 좋아 쉽게 찾아올 수 있다./온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 peachecho@naver.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [잇츠브리핑] 반도체도 '미국산'으로…반도체 도시 인천 불똥 튀나 [잇츠브리핑] 반도체도 '미국산'으로…반도체 도시 인천 불똥 튀나 [잇츠브리핑] "아트센터인천 2단계, 잡화점식 대관장 전락 우려" [잇츠브리핑] "아트센터인천 2단계, 잡화점식 대관장 전락 우려" [잇츠브리핑] 광역시 최대 곡창지대 인천, 쌀 가격 폭락에 농심 철렁 [잇츠브리핑] 광역시 최대 곡창지대 인천, 쌀 가격 폭락에 농심 철렁 기획특집 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [남극에서 온 편지] 9.작지만 큰 변화 [새로운 희망 경기교육] 시흥 군자디지털과학고등학교 경기도일자리재단 '잡아바', 청년 희망플랫폼 자리매김 [인터뷰] 박철민 연천군 고려인삼 영농법인 대표 “청정 연천서 계약재배…억대 농부된 비결” [인터뷰] 김현광 수원문화재단 대표 “시민 문화 향유 기회 확대할 것” [예술공간의 발견] 9. 인천의 독립예술영화관 [박창호 해양특위 위원장에 듣는다] “해양도시 인천, 100년 미래 먹거리 찾는다” [구도 인천] 구도의 기록자들…김노천 사진가·김은식 작가 [구도 인천] 구도의 산증인들…채병용 코치·배수현 치어리더 [잇츠레터]'딸 간수 잘하시라' 피해자 모친도 위협한 스토킹범 [잇츠레터]'딸 간수 잘하시라' 피해자 모친도 위협한 스토킹범 [잇츠GO] 아니 꽃게가 풍년(?)일세!…'소래질러!' [잇츠GO] 아니 꽃게가 풍년(?)일세!…'소래질러!' [카드뉴스]똑똑한 AR·VR 개항장 여행, '인천e지' 앱 하나면 끝 [카드뉴스]똑똑한 AR·VR 개항장 여행, '인천e지' 앱 하나면 끝 [잇츠레터]"윤 대통령 비속어 논란? 미국은 개의치 않아" [잇츠레터]"윤 대통령 비속어 논란? 미국은 개의치 않아" [카드뉴스]인천시티투어 10월엔 '50% 할인' [카드뉴스]인천시티투어 10월엔 '50% 할인' 많이 본 뉴스 오늘 주간 월간 1"야외 테이블서 실컷 먹더니 도망…나이 먹고 왜 이러나" 2용인~오산 고속도로 강행…화성시 '부글부글' 3[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 4[이슈 &amp; 이슈] 송도유원지 해결, 더 이상 미룰 수는 없다 5고양시 창릉천 제2의 호수공원 청신호...한준호 의원 2700억 환경부 통합하천 공모사업 1차 통과 6“드론 600대 탄천 밤하늘 수 놓는다”...성남시 6일 ‘드론 라이트 쇼’ 7[단독] 인천공항 '항공정비 MRO' 날개 편다…아틀라스항공 정비고, 1활주로 북측 결정 8[영종 차별의 섬에서 기회의 땅으로] 1. 인천의 밀라노·브로드웨이 표류…'기대 반 우려 반' 9“돼지열병 업무 폭증한 공무원에 파주시의원 과한 행감자료 요구” 10한국지엠 부평공장 '전기차 생산 유치' 기대감 1젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 2도자기의 모든 것, 여주도자기페스타 다음 달 1일 개최 3인천시 '인천 UAM전용공항 예정지' 정부 전달 4한국민속촌, 경기도민 대상 입장 할인 제공 5[잇츠GO] 아니 꽃게가 풍년(?)일세!…'소래질러!' 6"야외 테이블서 실컷 먹더니 도망…나이 먹고 왜 이러나" 7인천 노동자 평균 임금 369만원, 서울 455만원 대비 76% 수준 8경인고속도로 지하화 협약, 오늘 맺는다 9[구도 인천] 구도의 산증인들…채병용 코치·배수현 치어리더 10양주 회암사지 왕실축제, 어가행렬 주인공은 ‘시민’ 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3인력 '구멍' 경기소방본부에 정부 '설상가상' 감축 지시 4“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 5젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 6[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 7순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 8인천 남동공단 아닌 '남동산단'…주민들 '바로잡기' 민원 9한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 10송도 세브란스-배곧 서울대병원, 진검승부 '예고' 포토뉴스 [포토] '와이어 투 와이어 우승' 앞둔 SSG 랜더스…“기쁘지 아니한가” [포토] '와이어 투 와이어 우승' 앞둔 SSG 랜더스…“기쁘지 아니한가” [포토] '인천 베이비&amp;키즈페어' 찾은 시민들 [포토] '인천 베이비&amp;키즈페어' 찾은 시민들 [포토] 돌아온 축제…인천이 들썩 [포토] 돌아온 축제…인천이 들썩 [포토] 광명교육지원청 도덕초 현장점검 [포토] 광명교육지원청 도덕초 현장점검 [포토] 단기 4355 개천절 기념' 제23회 하늘 열림 큰잔치' [포토] 단기 4355 개천절 기념' 제23회 하늘 열림 큰잔치' [포토] 2022 INK(Incheon K-POP Concert) 화려한 무대 [포토] 2022 INK(Incheon K-POP Concert) 화려한 무대 [포토] "K팝도 인천e지" '제13회 INK(Incheon K-POP Concert) 콘서트' 성황 [포토] "K팝도 인천e지" '제13회 INK(Incheon K-POP Concert) 콘서트' 성황 [포토] 인천 송도컨벤시아 '인천베이비&amp;키즈페어' 찾은 시민들 [포토] 인천 송도컨벤시아 '인천베이비&amp;키즈페어' 찾은 시민들 [포토] 4년여 만에 열린 '부평풍물대축제' [포토] 4년여 만에 열린 '부평풍물대축제' [포토] '와이어 투 와이어 우승' 앞둔 SSG 랜더스…“기쁘지 아니한가” [포토] '인천 베이비&amp;키즈페어' 찾은 시민들 [포토] 돌아온 축제…인천이 들썩 [포토] 광명교육지원청 도덕초 현장점검 [포토] 단기 4355 개천절 기념' 제23회 하늘 열림 큰잔치' [포토] 2022 INK(Incheon K-POP Concert) 화려한 무대 [포토] "K팝도 인천e지" '제13회 INK(Incheon K-POP Concert) 콘서트' 성황 [포토] 인천 송도컨벤시아 '인천베이비&amp;키즈페어' 찾은 시민들 [포토] 4년여 만에 열린 '부평풍물대축제' 기획특집 기획 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” 2022.10.03 기획 [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 2022.10.03 인천에 온 이주민들 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 2022.09.29 기획 [남극에서 온 편지] 9.작지만 큰 변화 2022.09.29 기획 [새로운 희망 경기교육] 시흥 군자디지털과학고등학교 2022.09.29 특집 경기도일자리재단 '잡아바', 청년 희망플랫폼 자리매김 2022.09.29 인터뷰 [인터뷰] 박철민 연천군 고려인삼 영농법인 대표 “청정 연천서 계약재배…억대 농부된 비결” 2022.09.29 인터뷰 [인터뷰] 김현광 수원문화재단 대표 “시민 문화 향유 기회 확대할 것” 2022.09.29 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
-  </si>
-  <si>
-    <t>[기고] 제주도 관광정책, 관광국 독립에도 ‘그 밥에 그 나물’ &lt; 기고 &lt; 오피니언 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:21 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주 강한 비 ‘시간당 20mm’ 내외…기온 큰 폭으로 뚝↓ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 [기고] 제주도 관광정책, 관광국 독립에도 ‘그 밥에 그 나물’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 오피니언 기고 [기고] 제주도 관광정책, 관광국 독립에도 ‘그 밥에 그 나물’ 기자명 양인택					(news@jejusori.net) 입력 2018.03.13 08:19 댓글 5 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도가 관광의 질적 성장을 외친 지도 많은 세월이 지났다. 관광국까지 별도 부서를 독립하면서도 질적 성장을 위한 정책을 제대로 펴고는 있을까란 의문이 든다.질적 성장을 위해서라면 우선적으로 관광객의 만족도가 어느 정도인지, 무엇을 가장 많이 선호하고 있는지, 제주다움과 관광객이 느끼는 점은 어떠한지 등 기본적 요인들의 조사와 분석이 이뤄져야 한다.여기에 관광의 질적 성장으로 인한 도민들의 삶의 질은 향상되는 정책으로 하고 있는지를 최우선 과제로 선정해 추진돼야 한다.또 공적업무가 똑바로 진행돼야 하는 건 기본이다. 현재는 수십억 원의 공적자금을 투입하면서도 공적업무 시행주체를 회원사 중심인 민간사업자 모임이 맡아 사익을 창출하게 만드는 형태를 왜 바로잡지 못하는지, 그냥 방관하는 건지 몰라도 예나 지금이나 다른 게 없는 그 이유가 궁금해진다.제주사회 공익 창출 위해 공적업무 시행의 문제점 해소 시급관광분야의 공적업무는 공(公)기관이 맡아야 공정성과 제주사회의 전체이익이 확보된다는 것은 자명하다. 공적업무를 민간사업자 단체에서 시행하게 한 그 자체가 사익창출 등의 문제 소지가 많은 것을 모르지 않을 텐데 제주도는 공기관인 제주관광공사가 있음에도 왜 이런 정책결정을 하는지 의구심이 중폭 된다.관광호텔 등급심사, 국내홍보사무소, 공항․부두의 제주종합관광안내소 운영, 관광저해사범단속 업무 등에 혈세를 투입하면서 민간사업자 단체가 집행하도록 해 공익과 공정성, 공신력을 떨어뜨리고 있다.특히 관광호텔 등급심사는 한국관광협회, 한국관광호텔업협회가 맡아 왔으나 여러 가지 문제로 인해 3년 전에 법을 개정, 한국관광공사가 주관하고 있는데도 유독 제주도만 제주도관광협회가 맡고 있다. 이렇다보니 법으로 보장된 단체 가입활동의 자율권을 박탈시키면서 회원가입의 반 강제 결과를 초래하고 있는 환경이 만들어지고 있다. 또 회비납부 의무까지 지게 하면서 관광협회 회원사 중심의 관광안내 업무와 관광협회가 선임한 심사위원으로 호텔등급 평가업무는 제식구 감싸기 식으로 흐르고 있다.‘갑’질은 도려내야 할 적폐다. 제주도가 이를 조장하고 있는 형국이다. 왜 이래야만할까.관광공사 면세점, 정부와 경쟁하는 행태공적업무를 집행해야 하는 제주관광공사는 민간부분의 영역인 면세점에 주력하는 모습이다. 관광공사는 다른 업무보다는 제주사회 전체의 이익을 위한 공적업무를 우선적으로 집행하는 공기관이 되어야 한다. 제주도는 이를 바로 잡을 의무가 있다.사정이 이런데도 관광공사가 정부기관인 JDC(제주국제자유도시개발센터)가 운영하고 있는 면세점과 경쟁하는 양상이다. 정부기관과 충돌하는 사업보다는 공적업무에 집중함으로써 관광객 수용환경에 박차를 가하는 길이 제주관광 발전을 위한 관광공사의 본연의 업무가 아닐까.JDC는 제주지역을 위한 사회공헌사업 일환으로 곶자왈 보전․홍보, 다문화 가정과 함께하는 러브인제주, 마을공동체 사업지원, 농기계 1차 산업지원, 장애인특정차량 지원사업 등을 추진하고 있다.인건비마저 혈세로 수십억원을 지원받고 있는 관광공사가 공적업무는 뒷전으로 내팽겨쳐버리고 JDC가 막대한 예산을 들여 추진하고 있는 시회공헌사업들을 수행할 수 있을까.질적 성장, 관광객 정립과 공적업무의 시행주체 변경이 먼저 돼야관광객은 실질적으로 제주도에 24시간 이상 머물면서 실질적인 경제적 효과를 주는 사람이 먼저여야 한다. 잠시 왔다가는 방문객, 직업적으로 출장 왔다가는 사람, 크루즈이용객을 제외한 순수 관광객의 체류일수를 비롯해 이용시설, 교통수단, 음식 등 철저한 조사와 분석을 바탕으로 관광정책이 수립돼야 된다.제주도는 크루즈관광객까지 모두를 입도관광객에 포함해 숫자 부풀리기에 급급한 모양새다. 이를 두고 도민사회에서는 말로만 질적 성장을 외치고 뒤에서는 숫자 놀음한다는 비판을 한다.더욱이 2013년도 공무원 연수교육 때 제주대학교 A교수가 질적 성장을 위해서는 관광객을 1박 이상 머무는 사람으로 해야 질적 성장을 꽤할 수 있다는 내용으로 강연을 한 바 있지만, 제주도는 그가 제시한 내용에 아무런 조치도 없이 관광객 숫자 세는데만 5년을 허송세월하고 있다. 관광의 질적 성장을 위해서는 가장 먼저 24시간 이상 제주에 머무는 사람을 관광객으로 정립해야 한다. ▲ 양인택. ⓒ제주의소리 그러기 위해서는 항공, 선박을 이용하는 입도관광객의 전체적인 조사가 불가피하다. 도민들의 육지 나들이가 상당히 많아졌고, 표본조사에 의한 항공좌석수의 일정 비율을 곱하는 식의 통계는 오차가 크고 전수조사한 지도 수십 년이 지났기 때문이다.제주도는 질적 성장을 말로만 외치지 말고, 공적업무의 시행주체 변경 등 도민사회와 제주관광 발전을 위한 실질적인 정책을 펼쳐야 할 것이다. / 사단법인 제주관광진흥회 사무처장 양인택* 외부 필진의 기고는 본지 편집방향과 일치하지 않을 수 있습니다 양인택 news@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+    <t>따뜻한 봄 맞이한 제주도 서귀포, 중문 관광과 흑돼지구이 맛집 코스도 필수 - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-11 11:29 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 따뜻한 봄 맞이한 제주도 서귀포, 중문 관광과 흑돼지구이 맛집 코스도 필수 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 따뜻한 봄 맞이한 제주도 서귀포, 중문 관광과 흑돼지구이 맛집 코스도 필수 유지형 승인 2018.03.21 16:05 수정 2018.03.21 16:05 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × 올해 벚꽃 개화시기가 평년보다 1~2일 정도 빠를 것으로 예상되는 가운데, 오는 24일 제주 서귀포에서 드디어 올해 첫 벚꽃을 볼 수 있을 전망이다.벚꽃이 만개하는 데는 개화 후 일주일 정도 시간이 걸리기 때문에 서귀포에서는 오는 31일 만발한 벚꽃을 볼 수 있게 될 예정이다. 벚꽃 절정을 맞는 31일부터 내달 8일까지 전농로 벚꽃길에서는 다양한 먹거리 장터와 플리마켓이 열리는 ‘왕벚꽃 축제’가 개최된다.이외에도 제주에서는 4월 7일~4월 15일까지 제주유채꽃축제가 서귀포시 가시리 조랑말체험공원에서 열리며, 4월 10일~5월 10일까지 가파도청보리축제가 열릴 예정이다. 또한 지난 3월 1일부터 개최된 상효원튤립축제는 내달 8일까지 개최되어 남은 시일 동안에도 상효원의 아름다운 튤립 경관을 감상할 수 있다.이처럼 다양한 축제들이 한창인 제주도는 꽃놀이뿐만 아니라 관광지들도 많아 취향대로 원하는 여행코스를 계획할 수 있다. 관광도 관광이지만 여행 하면 빠질 수 없는 먹방도 제주에서라면 더욱 완벽하게 즐길 수 있다.특히 관광객들이 가장 많이 찾는 곳으로 알려진 제주도 서귀포 중문단지에는 소문난 흑돼지구이 맛집들이 많은 편이다. ‘돈가득’도 그 중 하나로 다른 곳과는 달리 고기를 굽기 전 복분자를 흑돼지 위에 뿌려줘, 잡내 없는 고기를 맛볼 수 있는 것이 특징이다.참숯전문점으로 숯 향이 가득 배인 두툼한 흑돼지 목살, 오겹살을 즐길 수 있으며, 고소한 버섯과 흑돼지로 만든 소시지를 함께 제공하여 같이 구워먹을 수 있도록 했다. 흑돼지구이와 궁합이 좋은 멜젓과 깻잎 무침, 파무침도 함께 제공되어 흑돼지 특유의 식감과 감칠맛을 더욱 제대로 느낄 수 있다.근고기가 아닌 인분 단위로 판매하여 선택의 폭이 넓으며 흑돼지불고기전골도 판매하여 든든한 식사를 즐길 수 있다. 이와 더불어 점심특선으로 전복이 들어간 돼지불고기정식, 된장찌개와 김치찌개도 판매하고 있다.한편 ‘돈가득’은 MBC 에브리원 ‘맛있을 지도’에 제주도 서귀포 중문 흑돼지구이 맛집으로 방영되어 화제가 된 바 있다. 매일 점심 12시부터 저녁 11시까지 운영되고 있으며, 대포주상절리, 천제연폭포, 여미지식물원, 중문색달해수욕장 등 제주 가볼만한곳과 접근성이 좋아 쉽게 찾아올 수 있다./온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 peachecho@naver.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 기획특집 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 [인천 미래 가꿈 프로젝트] 초일류도시, 철저한 준비에서 시작된다 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" 많이 본 뉴스 오늘 주간 월간 1수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 2수원발 KTX·7호선 연장선 정시 개통 '물거품' 3인천공항공사 '4→3급 특별승진' 뒷말 무성 4인천‧수원발 KTX 2025년 개통 무산, 빨라야 2027년부터 운행 5“상가주택 짓고 있는데…가로주택 정비 조합 동의하라고요?” 63년 만에 열린 대한민국 막걸리축제 인산인해...세계무형문화 등재 속도 7유정복 시장, 대통령 만나 제물포 르네상스 등 핵심 공약 지원 요청 8하나님의 교회, 시흥과 은평서 헌당기념예배 개최 9몸집 줄인 '인천도서관' 인천시의회 심의 앞둬 10[뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 1암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 2"무식한 소리" 메시지 파장…윤 대통령 입 열었다 3"전쟁 난 줄" "비행기 추락했나" 밤새 공포에 떤 시민들 4한국시리즈 직행 SSG, 12년만에 '통합우승' 노린다 5수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 6[구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 7[비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 8'농촌빈집 증가' 가팔라…철거비 연 수억 9전기차 60대 동시충전…송도국제도시에 메가와티 등장 10수원발 KTX·7호선 연장선 정시 개통 '물거품' 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 4젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 5[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 6순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 7암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 8[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 9송도 세브란스-배곧 서울대병원, 진검승부 '예고' 10한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 포토뉴스 [포토] 가을 추위 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 [포토] 부평구 채용박람회…내 일자리는 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 기획특집 뉴스 인사이드 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 2022.10.10 인터뷰 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” 2022.10.10 기획 [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 2022.10.10 기획 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 2022.10.05 구도 인천(球都 仁川) [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 2022.10.05 기획 [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 2022.10.04 천년밥상, 경기米이야기 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 2022.10.04 新 고려도경 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 2022.10.04 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
+  </si>
+  <si>
+    <t>[기고] 제주도 관광정책, 관광국 독립에도 ‘그 밥에 그 나물’ &lt; 기고 &lt; 오피니언 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 [기고] 제주도 관광정책, 관광국 독립에도 ‘그 밥에 그 나물’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 오피니언 기고 [기고] 제주도 관광정책, 관광국 독립에도 ‘그 밥에 그 나물’ 기자명 양인택					(news@jejusori.net) 입력 2018.03.13 08:19 댓글 5 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도가 관광의 질적 성장을 외친 지도 많은 세월이 지났다. 관광국까지 별도 부서를 독립하면서도 질적 성장을 위한 정책을 제대로 펴고는 있을까란 의문이 든다.질적 성장을 위해서라면 우선적으로 관광객의 만족도가 어느 정도인지, 무엇을 가장 많이 선호하고 있는지, 제주다움과 관광객이 느끼는 점은 어떠한지 등 기본적 요인들의 조사와 분석이 이뤄져야 한다.여기에 관광의 질적 성장으로 인한 도민들의 삶의 질은 향상되는 정책으로 하고 있는지를 최우선 과제로 선정해 추진돼야 한다.또 공적업무가 똑바로 진행돼야 하는 건 기본이다. 현재는 수십억 원의 공적자금을 투입하면서도 공적업무 시행주체를 회원사 중심인 민간사업자 모임이 맡아 사익을 창출하게 만드는 형태를 왜 바로잡지 못하는지, 그냥 방관하는 건지 몰라도 예나 지금이나 다른 게 없는 그 이유가 궁금해진다.제주사회 공익 창출 위해 공적업무 시행의 문제점 해소 시급관광분야의 공적업무는 공(公)기관이 맡아야 공정성과 제주사회의 전체이익이 확보된다는 것은 자명하다. 공적업무를 민간사업자 단체에서 시행하게 한 그 자체가 사익창출 등의 문제 소지가 많은 것을 모르지 않을 텐데 제주도는 공기관인 제주관광공사가 있음에도 왜 이런 정책결정을 하는지 의구심이 중폭 된다.관광호텔 등급심사, 국내홍보사무소, 공항․부두의 제주종합관광안내소 운영, 관광저해사범단속 업무 등에 혈세를 투입하면서 민간사업자 단체가 집행하도록 해 공익과 공정성, 공신력을 떨어뜨리고 있다.특히 관광호텔 등급심사는 한국관광협회, 한국관광호텔업협회가 맡아 왔으나 여러 가지 문제로 인해 3년 전에 법을 개정, 한국관광공사가 주관하고 있는데도 유독 제주도만 제주도관광협회가 맡고 있다. 이렇다보니 법으로 보장된 단체 가입활동의 자율권을 박탈시키면서 회원가입의 반 강제 결과를 초래하고 있는 환경이 만들어지고 있다. 또 회비납부 의무까지 지게 하면서 관광협회 회원사 중심의 관광안내 업무와 관광협회가 선임한 심사위원으로 호텔등급 평가업무는 제식구 감싸기 식으로 흐르고 있다.‘갑’질은 도려내야 할 적폐다. 제주도가 이를 조장하고 있는 형국이다. 왜 이래야만할까.관광공사 면세점, 정부와 경쟁하는 행태공적업무를 집행해야 하는 제주관광공사는 민간부분의 영역인 면세점에 주력하는 모습이다. 관광공사는 다른 업무보다는 제주사회 전체의 이익을 위한 공적업무를 우선적으로 집행하는 공기관이 되어야 한다. 제주도는 이를 바로 잡을 의무가 있다.사정이 이런데도 관광공사가 정부기관인 JDC(제주국제자유도시개발센터)가 운영하고 있는 면세점과 경쟁하는 양상이다. 정부기관과 충돌하는 사업보다는 공적업무에 집중함으로써 관광객 수용환경에 박차를 가하는 길이 제주관광 발전을 위한 관광공사의 본연의 업무가 아닐까.JDC는 제주지역을 위한 사회공헌사업 일환으로 곶자왈 보전․홍보, 다문화 가정과 함께하는 러브인제주, 마을공동체 사업지원, 농기계 1차 산업지원, 장애인특정차량 지원사업 등을 추진하고 있다.인건비마저 혈세로 수십억원을 지원받고 있는 관광공사가 공적업무는 뒷전으로 내팽겨쳐버리고 JDC가 막대한 예산을 들여 추진하고 있는 시회공헌사업들을 수행할 수 있을까.질적 성장, 관광객 정립과 공적업무의 시행주체 변경이 먼저 돼야관광객은 실질적으로 제주도에 24시간 이상 머물면서 실질적인 경제적 효과를 주는 사람이 먼저여야 한다. 잠시 왔다가는 방문객, 직업적으로 출장 왔다가는 사람, 크루즈이용객을 제외한 순수 관광객의 체류일수를 비롯해 이용시설, 교통수단, 음식 등 철저한 조사와 분석을 바탕으로 관광정책이 수립돼야 된다.제주도는 크루즈관광객까지 모두를 입도관광객에 포함해 숫자 부풀리기에 급급한 모양새다. 이를 두고 도민사회에서는 말로만 질적 성장을 외치고 뒤에서는 숫자 놀음한다는 비판을 한다.더욱이 2013년도 공무원 연수교육 때 제주대학교 A교수가 질적 성장을 위해서는 관광객을 1박 이상 머무는 사람으로 해야 질적 성장을 꽤할 수 있다는 내용으로 강연을 한 바 있지만, 제주도는 그가 제시한 내용에 아무런 조치도 없이 관광객 숫자 세는데만 5년을 허송세월하고 있다. 관광의 질적 성장을 위해서는 가장 먼저 24시간 이상 제주에 머무는 사람을 관광객으로 정립해야 한다. ▲ 양인택. ⓒ제주의소리 그러기 위해서는 항공, 선박을 이용하는 입도관광객의 전체적인 조사가 불가피하다. 도민들의 육지 나들이가 상당히 많아졌고, 표본조사에 의한 항공좌석수의 일정 비율을 곱하는 식의 통계는 오차가 크고 전수조사한 지도 수십 년이 지났기 때문이다.제주도는 질적 성장을 말로만 외치지 말고, 공적업무의 시행주체 변경 등 도민사회와 제주관광 발전을 위한 실질적인 정책을 펼쳐야 할 것이다. / 사단법인 제주관광진흥회 사무처장 양인택* 외부 필진의 기고는 본지 편집방향과 일치하지 않을 수 있습니다 양인택 news@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
   </si>
   <si>
     <t>제주도-타이거에어, 대만 관광객 대상 '해녀문화' 연중 홍보 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도-타이거에어, 대만 관광객 대상 '해녀문화' 연중 홍보 파이낸셜뉴스입력 2018.03.01 13:15수정 2018.03.01 13:15 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주해녀 '글로벌 관광 콘텐츠' 육성 일환해녀체험 프로그램 진행…현지 설명회도 제주해녀(사진=제주도 제공) /사진=fnDB [제주=좌승훈기자] 제주특별자치도는 1일 “제주해녀 유네스코 무형문화재 선정 1주년을 기념하고 제주만의 독특한 ‘해녀 문화’를 대만 관광객들에게 홍보하기 위한 연중 프로젝트를 추진한다”고 밝혔다. 대만 항공사인 타이거에어와 공동으로 추진되는 이번 프로젝트는 ‘제주 해녀’를 글로벌 관광 콘텐츠로 육성하기 위한 것으로서 대만 관광객들이 제주 해녀문화를 직접 체험할 수 있도록 했다. 도는 이에따라 오는 5일부터 4월15일까지 대만 관광객들을 대상으로 온라인을 통해 제주해녀 체험 프로그램 참가자를 모집하고, 추첨을 통해 대상자를 선정, 대만 주요 언론매체와 공동으로 제주 해녀체험 팸투어를 진행한다. 제주해녀 홍보영상도 제작해 대만 현지에 소개할 계획이다. 또 ‘제주해녀’ 이미지를 대만 관광객들에게 널리 알리기 위해 페이스북과 대만 야후, 빈과일보(Apple daily) 등 주요 언론매체를 통한 홍보도 함께 추진한다. 한편 제주도와 제주관광공사는 이번 프로젝트 추진 외에도 3월중 대만 주요 매체 초청 팸투어 추진하고, 대만 개별 관광객을 위한 제주홍보책자 발간, 타이베이 국제관광박람회 참가(5월), 대만 주요 업계 대상 제주관광설명회 개최(7월) 등 대만 관광객 유치를 위한 마케팅 활동을 연중 전개키로 했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
   </si>
   <si>
-    <t>봄에 떠나는 제주도 중문관광단지 흑돼지 맛집 여행 &lt; 유통 &lt; 경제 &lt; 기사본문 - 기호일보 - 아침을 여는 신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체기사 포토뉴스 인기기사 2022-10-04 (화) 로그인 회원가입 facebook youtube rss 뉴스 정치 경제 사회 문화 교육 특집 오피니언 사설 서해안 금요논단 기호포럼 월요프리즘 인천 경기 지역 스포츠 야구 축구 골프 농구/배구 오늘의경기 사람과 사람 인천 경기 새얼굴 지역 안테나 인사 부고 결혼 기호경제 기호TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 봄에 떠나는 제주도 중문관광단지 흑돼지 맛집 여행 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 유통 봄에 떠나는 제주도 중문관광단지 흑돼지 맛집 여행 기자명 디지털뉴스부 입력 2018.03.16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 이젠 완연한 봄이다. 매년 봄철 여행지로 떠오른 곳은 제주도 중문관광단지이다. 중문관광단지 대포항의 주상절리대는 웅장한 해안 절벽과 함께 바다가 조화롭게 어울려 특히 봄철에는 관광객들이 붐비는 곳이기도 하다. 그러나 특이할만 한 점은 중문관광단지를 찾는 관광객들이 과거에는 자연절경과 시원한 바닷가를 찾아 왔다면 최근에는 맛집 여행지로 찾는다는 것이다. 셰프들이 등장하는 TV프로그램들과 맛집을 소개하는 각종 TV프로그램들이 전성기를 맞이하면서, 맛집만을 찾아 떠나는 여행객들이 늘었기 때문이다. ▲ 사진 제공 : 돈이랑 특히 제주도하면 떠오르는 유명 관광지인 서귀포 중문관광단지의 경우 제주도에서만 맛볼 수 있는 흑돼지 중심으로 맛집이 즐비해 관광객들의 눈길을 끌고 있다. 중문관광단지 입구에 위치한 흑돼지 전문 ‘돈이랑’ 관계자는 “본 매장을 찾는 관광객들의 경우 남녀노소 나이를 불문하고 이삼오오 짝을 이루거나 나홀로 여행속에 맛집 탐방을 즐기는 분위기다. 과거 수려한 자연경관을 찾는 여행에서 특정 지역에서만 맛볼 수 있는 요리를 찾아 떠나는 여행이 늘고 있는 것 같다”며 “이러한 흐름에 맞춰 돈이랑에서만 맛볼 수 있는 특색 있는 메뉴 알리기에 노력하고 있다”고 전했다. 현재 돈이랑은 국내에서는 처음으로 흑돼지 청정사육단계 HACCP 인증을 획득하고 무항상제 명품 흑돼지로 국내 유명백화점에 납품을 진행하고 있다. 또한 지하 180미터에서 퍼올린 미네랄의 보고 화산암반수로 사육해, 위생적이고 미네랄이 풍부한 제주흑돼지를 두툼한 두께로 제공해 눈길을 끌고 있다. 특히 두툼한 두께로 제공하는 흑돼지 연탄불 구이는 겉은 바삭하고 속은 부드러운 특유의 맛이 특징으로 알려졌다. 한편 돈이랑은 봄철 여행객들을 위해 픽업서비스와 함께 밤 12시까지 심야영업을 하고 있으며, 마치 레스토랑의 코스요리처럼 숙련된 직원들이 은은한 연탄불에서 직접 구운 흑돼지 요리를 제공하고 있다. 기호일보 - 아침을 여는 신문, KIHOILBO 디지털뉴스부 dgnews@kihoilbo.co.kr 다른기사 보기 저작권자 © 기호일보 - 아침을 여는 신문 무단전재 및 재배포 금지 당신만 안 본 뉴스 송도 중앙호수공원 10년 만에 바닥 준설 ‘2022 우선멈‘춤’ 안양시민축제’ 오는 23~25일 평촌중앙공원·삼덕공원서 열려 핑크뮬리의 계절 GTX-B 인천대입구역 환승센터 청사진 그린다 신천지예수교 이만희 총회장 ‘수장절의 참 의미’ 성경 세미나 눈길 이민근 안산시장, ‘상록구 해양동’ 안산대표 랜드마크로 발전계획 밝혀 화성 향남 제약회사 공장서 폭발로 화재 송도 중앙호수공원 10년 만에 바닥 준설 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 내 고장 인천을 빛낸 ‘최고의 인천人’ 누구? 4700여 명 어린 피해자들에 보내는 위로 제3연륙교 ‘글로벌 관광명소’로 단장 광주시와 한전 ‘불통 행정’에 도로 준공 믿은 주민만 분통 화성 향남 제약회사 공장서 폭발로 화재 아시안컵 잡아라 최신뉴스 한미연합사본부, 이달말 44년만에 평택시대 연다 부천시, 내년에도 맞춤형·생계형 체납자 발굴 등 체납관리단 활성화 인천 버스 준공영제 체질 개선 ‘공회전’ 신명 나는 거리행진 ‘눈에 쏙’ 내 고장 인천을 빛낸 ‘최고의 인천人’ 누구? 오늘의 포토 신명 나는 거리행진 ‘눈에 쏙’ 개천절 기념 ‘하늘열림큰잔치 가을비에 발그레 가을아 어서 오렴 인기뉴스 1 진단과 처방 2 한발 늦은 ‘인천발 KTX 인천역 유치’ 공감 못얻나 3 인천 버스 준공영제 체질 개선 ‘공회전’ 4 내 고장 인천을 빛낸 ‘최고의 인천人’ 누구? 5 신명 나는 거리행진 ‘눈에 쏙’ 6 개천절 기념 ‘하늘열림큰잔치 7 가벼운 목 통증도 ‘암’ 전조증상 8 [기호일보 만평] 이이제이 9 제3연륙교 ‘글로벌 관광명소’로 단장 10 광주시와 한전 ‘불통 행정’에 도로 준공 믿은 주민만 분통 기호일보 - 아침을 여는 신문 본사 : 인천광역시 남동구 미래로32 비전타워 14층 전화 : 총무국 032-761-0007~8   편집국 032-761-0004~6  디지털뉴스부 032-761-0009 팩스 : 032-761-0015 경기본사 : 경기도 수원시 팔달구 경수대로 464 (기아자동차 빌딩 4층) 전화 : 031-898-6767~8 팩스 : 031-898-6769 경기북부본사 : 경기도 의정부시 청사로 5번길 8-7 11층 1102호 전화 : 031-872-2990 팩스 : 031-872-2991 등록번호 : 인천 아01548 등록일 : 2021-07-16 발행인 : 서강훈 편집인 : 한창원 기호일보 - 아침을 여는 신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 기호일보 - 아침을 여는 신문. All rights reserved. mail to webmaster@kihoilbo.co.kr 윤리강령 독자위원회 사내게시판 개인정보처리방침 청소년보호정책 이메일무단수집거부 RSS 회사소개 인사말 찾아오시는길 조직 및 연락처 고객센터 기사제보 구독신청 광고문의 불편신고 제휴문의 저작권문의 위로 전체메뉴 전체기사 정치 전체 중앙정치 지역정치 자치/행정 2022 대선 여의도중계탑 대통령실 열린의정 안녕!특례시 6·1지방선거 4·15 총선-인천 4·15 총선-경기 포토뉴스 경제 전체 인천 경기 공항/항만 부동산 유통 경제자유구역 경제일반 포토뉴스 금주의 LOTTO 스타트업 비대면 서비스 사회 전체 인천 경기 사건사고 풀피리 보건/의료 포토뉴스 당신이 있어 행복한 세상 인천과 함께한 당신을 기업합니다 메디컬 칼럼 사랑의 온도 문화 전체 전시공연 문화일반 영화 도서 인물 김진형의 숨은영화찾기 베스트셀러 신간 안내 금주의 핫 무비 영화공간 주안 교육 전체 인천 경기 2021 인천미래교육 지역 전체 경기남부 경기북부 기호플라자 스포츠 전체 야구 축구 골프 농구/배구 스포츠일반 아시안게임 스포츠포토 오늘의경기 전국체전 올림픽 코리아오픈 탁구대회 레저/연예 전체 방송 음악 영화 연예계 핫이슈 종합 전체 사고 알림 본사손님 오피니언 전체 사설 서해안 구월동에서 금요논단 기호포럼 월요프리즘 漢字成語 손자병법에서 오늘을 읽는다 칼럼 교육칼럼 의정칼럼 복지칼럼 데스크 칼럼 인천아카데미 등대 동우회 광장 청춘어람 김필수 자동차 세상 두 姜의 역사산책 원현린 칼럼 신미송의 틈세 힐링토피아 자치플라자 이선신의 아침노크 장순휘 국방토크 윤명철의 ‘종횡무진’ 경제 칼럼 韓中日 삼국지 환경칼럼 생활 속 법무상담 최원영의 행복이야기 문화칼럼 융합비즈니스 코너 강석승의 북한 평설(評說) 정종민 칼럼 ESG와 녹색경영 김준우 칼럼 이상순의 음악이 있는 삶 특별기고 기자의눈 時評 독자투고 사람과 사람 전체 인천 경기 새얼굴 인사 부고 결혼 기호경제 만평 특집 전체 기획특집 7대륙 최고봉 오르다 이슈&amp;인물 설 특집 신년특집 지령 8000호 창간 34주년 차 한잔 합시다 남양주, 한강문명의 시원을 찾다 학생이 행복한 경기교육 경기도 우수여성기업 인천노포 백년가게 남양주,그린으로 달리다 ESG와 만나다 우리 고장 명물 지금 우리 학교는 청년, 예술하다 본사행사 전체 어린이날 대축제 수원화성 그림그리기대회 봄사랑 가족축제 전국바둑대회 미래도시그리기대회 통일염원 문화예술대회 가족사랑 걷기축제 중국의날 문화축제 송년 제야의 밤 문화축제 자선골프대회 참여성경제인 대상 3·1절 단축마라톤대회 K-POP 댄스경연대회 기호 참일꾼상 고양시 장애청소년 어울림 페스티벌 제1회 보람상조배 탁구대회 친환경 자전거 베스티벌 어린이 합창대회 코리아맨 송도대회 2020 인천소상공인 힘내라 기호자치 의정대상 지난연재 전체 경제인물 주식 유망기업을찾아 건강칼럼 우리동네최고 NGO를찾아서 만나고싶었습니다 미디어ㆍ오락 영화ㆍ책 산책 우리학교 짱 Week&amp;Do 정가 미니보고 인천의 최초.최고 춘추관25시 윤영자의 세무에센스 한국最初 인천最古 주말매거진 Hot &amp; Issue 연재 전체 포토 슬라이드 포토뉴스 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>봄기운 만연한 제주도로, 서귀포 중문에서 관광 후 흑돼지 맛집까지 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-04 10:22 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 봄기운 만연한 제주도로, 서귀포 중문에서 관광 후 흑돼지 맛집까지 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 봄기운 만연한 제주도로, 서귀포 중문에서 관광 후 흑돼지 맛집까지 기자명 장준영 기자 승인 2018.03.02 15:02 댓글 0 조회수 : 2117 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 사계절 내내 각기 다른 매력을 가진 제주도이지만, 움츠러들게 했던 추위가 물러가고 만물이 소생하는 계절, 봄철의 제주도는 유독 설렌다. 제주도 어디를 가도 자연이 만들어낸 멋진 경관과 맛있는 음식들이 관광객을 반기지만 서귀포시에 위치한 ‘중문관광단지’는 세계적으로도 인정받는 제주도의 대표적인 종합관광휴양단지다. 먼저 중문 해안가를 중심으로 여러 유명 호텔들이 자리 잡고 있고, 천제연폭포와 지삿개 주상절리, 용머리해안, 색달해변 등 제주 특유의 자연이 주는 감동과 함께 퍼시픽랜드와 여미지식물원, 아쿠아플라넷, 믿거나말거나박물관 등 도심에서는 경험하기 어려운 각종 테마 체험과 맛있는 제주특산음식까지. 중문 안에서 다양한 ‘제주 힐링여행’이 가능하다.특히 이맘때 제주도에 가면 절대 빼놓을 수 없는 유채꽃까지, 중문동에 위치해 있는 ‘엉덩물계곡’에서 만발한 유채꽃을 보며 봄기운을 만끽하기에 좋다. 아이를 동반한 가족단위의 여행이라면 어린이들이 좋아할만한, 돌고래쇼를 볼 수 있는 ‘퍼시픽랜드’와 ‘아쿠아플라넷’, 견학장소로도 좋은 ‘여미지식물원’ 등 다채롭게 코스를 정할 수 있다. 하지만 금강산도 식후경 아닌가. 제주도에 왔으니 제주도의 대표적인 음식 흑돼지 식사는 빠질 수 없다. 중문동 2025-1에 위치한 ‘돈가득’은 제주산 두툼한 흑돼지를 품질 좋은 참숯에 굽는데, 굽기 직전 복분자를 뿌려주어 잡내를 없앤다.또 주인장이 제주산 청정재료로 직접 만드는 정갈한 반찬과 점심특선메뉴로 제공되는 전복을 넣은 ‘흑돼지불고기전골’까지, 어느 것 하나 주인장의 정성과 진심이 담기지 않은 것이 없다.흑돼지 이외에 오겹살과 대패삼겹살, 소등갈비살 등 고기메뉴가 다양하게 제공되며 함께 구워먹는 버섯과 소시지, 된장찌개 등 서브메뉴의 맛도 일품이다.MBC에브리원 ‘맛있을 지도’ 먹방 프로그램에 소개되어 좋은 반응을 얻은바 있는 ‘돈가득’, 예약 및 문의가능하다. 장준영 기자 pamir63@busaneconomy.com 장준영 기자 pamir63@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 부산 사상구의회 ‘골목상권 공동체 육성 및 활성화 지원’ 조례 제정 더불어민주당 부산시당, “경남이 걷어찬 부울경 메가시티, 대통령실이 정리해야” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 선배가 들려주는 창업… 말랑하니의 ‘성장 스토리’ 르노코리아차, SM6 필 트림 새롭게 출시 부산 치의학 인재 양성 지산학 협력… 30호 브랜치 ㈜디오에 개소 XM3, 부산공장 생산 20만대 돌파 인기뉴스 1 HJ중공업, 거제공장 개장…일감 증가에 조선부문 투자확대 2 [인터뷰] “인기절정 신혼여행지 몰디브, 사전예약 통해 알뜰하고 지혜롭게” 3 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 4 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” 5 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 6 국립해양박물관 소장 ‘감로도’, 부산시 문화재 지정 7 BNK캐피탈 “AI챗봇으로 고객편의·업무효율 제고” 8 캠코, 2384억원 규모 압류재산 공매…부산 32건 포함 포토뉴스 코나아이, 동백택시 서포터즈들과 ‘음주운전’ 근절 캠페인 펼쳐 [윤재우의 비대면 선거의 제왕 #33] 비대면은 빨리 변하지만 오래 견디는 사람이 승리… "장기전으로 봐야" 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” 최신뉴스 코나아이, 동백택시 서포터즈들과 ‘음주운전’ 근절 캠페인 펼쳐 [윤재우의 비대면 선거의 제왕 #33] 비대면은 빨리 변하지만 오래 견디는 사람이 승리… "장기전으로 봐야" 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” [인터뷰] “인기절정 신혼여행지 몰디브, 사전예약 통해 알뜰하고 지혜롭게” 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+    <t>봄에 떠나는 제주도 중문관광단지 흑돼지 맛집 여행 &lt; 유통 &lt; 경제 &lt; 기사본문 - 기호일보 - 아침을 여는 신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체기사 포토뉴스 인기기사 2022-10-11 (화) 로그인 회원가입 facebook youtube rss 뉴스 정치 경제 사회 문화 교육 특집 오피니언 사설 서해안 금요논단 기호포럼 월요프리즘 인천 경기 지역 스포츠 야구 축구 골프 농구/배구 오늘의경기 사람과 사람 인천 경기 새얼굴 지역 안테나 인사 부고 결혼 기호경제 기호TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 봄에 떠나는 제주도 중문관광단지 흑돼지 맛집 여행 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 유통 봄에 떠나는 제주도 중문관광단지 흑돼지 맛집 여행 기자명 디지털뉴스부 입력 2018.03.16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 이젠 완연한 봄이다. 매년 봄철 여행지로 떠오른 곳은 제주도 중문관광단지이다. 중문관광단지 대포항의 주상절리대는 웅장한 해안 절벽과 함께 바다가 조화롭게 어울려 특히 봄철에는 관광객들이 붐비는 곳이기도 하다. 그러나 특이할만 한 점은 중문관광단지를 찾는 관광객들이 과거에는 자연절경과 시원한 바닷가를 찾아 왔다면 최근에는 맛집 여행지로 찾는다는 것이다. 셰프들이 등장하는 TV프로그램들과 맛집을 소개하는 각종 TV프로그램들이 전성기를 맞이하면서, 맛집만을 찾아 떠나는 여행객들이 늘었기 때문이다. ▲ 사진 제공 : 돈이랑 특히 제주도하면 떠오르는 유명 관광지인 서귀포 중문관광단지의 경우 제주도에서만 맛볼 수 있는 흑돼지 중심으로 맛집이 즐비해 관광객들의 눈길을 끌고 있다. 중문관광단지 입구에 위치한 흑돼지 전문 ‘돈이랑’ 관계자는 “본 매장을 찾는 관광객들의 경우 남녀노소 나이를 불문하고 이삼오오 짝을 이루거나 나홀로 여행속에 맛집 탐방을 즐기는 분위기다. 과거 수려한 자연경관을 찾는 여행에서 특정 지역에서만 맛볼 수 있는 요리를 찾아 떠나는 여행이 늘고 있는 것 같다”며 “이러한 흐름에 맞춰 돈이랑에서만 맛볼 수 있는 특색 있는 메뉴 알리기에 노력하고 있다”고 전했다. 현재 돈이랑은 국내에서는 처음으로 흑돼지 청정사육단계 HACCP 인증을 획득하고 무항상제 명품 흑돼지로 국내 유명백화점에 납품을 진행하고 있다. 또한 지하 180미터에서 퍼올린 미네랄의 보고 화산암반수로 사육해, 위생적이고 미네랄이 풍부한 제주흑돼지를 두툼한 두께로 제공해 눈길을 끌고 있다. 특히 두툼한 두께로 제공하는 흑돼지 연탄불 구이는 겉은 바삭하고 속은 부드러운 특유의 맛이 특징으로 알려졌다. 한편 돈이랑은 봄철 여행객들을 위해 픽업서비스와 함께 밤 12시까지 심야영업을 하고 있으며, 마치 레스토랑의 코스요리처럼 숙련된 직원들이 은은한 연탄불에서 직접 구운 흑돼지 요리를 제공하고 있다. 기호일보 - 아침을 여는 신문, KIHOILBO 디지털뉴스부 dgnews@kihoilbo.co.kr 다른기사 보기 저작권자 © 기호일보 - 아침을 여는 신문 무단전재 및 재배포 금지 당신만 안 본 뉴스 구리한강시민공원서 10일 제37회 시민의 날 행사 개최 신천지예수교 이만희 총회장 ‘수장절의 참 의미’ 성경 세미나 눈길 이민근 안산시장, ‘상록구 해양동’ 안산대표 랜드마크로 발전계획 밝혀 수원화성문화제 3년 만에 팡파르 병가 내고 룰루랄라 캠핑 道 공무직원 중징계 조치 진단과 처방 화성 향남 제약회사 공장서 폭발로 화재 구리한강시민공원서 10일 제37회 시민의 날 행사 개최 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 시도지사들 "지자체서 부단체장 직접 지명 권한 달라" 인천e음 새 운영대행사 이달 말 공모 정부發 수도권 규제법이 야속 인천 ‘뉴 홍콩시티’ 타격 우려 ‘깡통전세’ 사기 고양 탄현서만 247억 道 2회 추경예산 임시회 처리 불발 인천시-3개 기초단체 행정체제 개편 합심 최신뉴스 10월 1∼10일 수출 20.2%↓…무역적자 38억 달러 코스피 장중 2,170대로 뒷걸음…원/달러 환율 1,430원대 부천시, 올 새내기 공무원 151명 입문 교육 자치단체장 고유 사업 떠맡아… 재정 관리 나몰라라 빚만 초래 NC 제압한 수원 kt위즈 오늘의 포토 NC 제압한 수원 kt위즈 흥 넘치는 사자춤 대형마트 쉬는 날 전통시장은 북적 우리가 만든 월병 어때요 인기뉴스 1 시도지사들 "지자체서 부단체장 직접 지명 권한 달라" 2 道 추경안 원포인트 임시회서 처리 3 자치단체장 고유 사업 떠맡아… 재정 관리 나몰라라 빚만 초래 4 시정 혁신 ‘예열 끝’ 인천e음 등 현안사업 개선 ‘밑줄 쫙’ 5 NC 제압한 수원 kt위즈 6 ‘제25회 산정호수 명성산 억새꽃 축제’ 오는 31일까지 펼쳐진다 7 하남시, 행정고시 최연소 합격 윤희수씨 명예 공무원 위촉 8 노인 건강 무너뜨리는 ‘골다공증’ 9 ‘깡통전세’ 사기 고양 탄현서만 247억 10 정부發 수도권 규제법이 야속 인천 ‘뉴 홍콩시티’ 타격 우려 기호일보 - 아침을 여는 신문 본사 : 인천광역시 남동구 미래로32 비전타워 14층 전화 : 총무국 032-761-0007~8   편집국 032-761-0004~6  디지털뉴스부 032-761-0009 팩스 : 032-761-0015 경기본사 : 경기도 수원시 팔달구 경수대로 464 (기아자동차 빌딩 4층) 전화 : 031-898-6767~8 팩스 : 031-898-6769 경기북부본사 : 경기도 의정부시 청사로 5번길 8-7 11층 1102호 전화 : 031-872-2990 팩스 : 031-872-2991 등록번호 : 인천 아01548 등록일 : 2021-07-16 발행인 : 서강훈 편집인 : 한창원 기호일보 - 아침을 여는 신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 기호일보 - 아침을 여는 신문. All rights reserved. mail to webmaster@kihoilbo.co.kr 윤리강령 독자위원회 사내게시판 개인정보처리방침 청소년보호정책 이메일무단수집거부 RSS 회사소개 인사말 찾아오시는길 조직 및 연락처 고객센터 기사제보 구독신청 광고문의 불편신고 제휴문의 저작권문의 위로 전체메뉴 전체기사 정치 전체 중앙정치 지역정치 자치/행정 2022 대선 여의도중계탑 대통령실 열린의정 안녕!특례시 6·1지방선거 4·15 총선-인천 4·15 총선-경기 포토뉴스 경제 전체 인천 경기 공항/항만 부동산 유통 경제자유구역 경제일반 포토뉴스 금주의 LOTTO 스타트업 비대면 서비스 사회 전체 인천 경기 사건사고 풀피리 보건/의료 포토뉴스 당신이 있어 행복한 세상 인천과 함께한 당신을 기업합니다 메디컬 칼럼 사랑의 온도 문화 전체 전시공연 문화일반 영화 도서 인물 김진형의 숨은영화찾기 베스트셀러 신간 안내 금주의 핫 무비 영화공간 주안 교육 전체 인천 경기 2021 인천미래교육 지역 전체 경기남부 경기북부 기호플라자 스포츠 전체 야구 축구 골프 농구/배구 스포츠일반 아시안게임 스포츠포토 오늘의경기 전국체전 올림픽 코리아오픈 탁구대회 레저/연예 전체 방송 음악 영화 연예계 핫이슈 종합 전체 사고 알림 본사손님 오피니언 전체 사설 서해안 구월동에서 금요논단 기호포럼 월요프리즘 漢字成語 손자병법에서 오늘을 읽는다 칼럼 교육칼럼 의정칼럼 복지칼럼 데스크 칼럼 인천아카데미 등대 동우회 광장 청춘어람 김필수 자동차 세상 두 姜의 역사산책 원현린 칼럼 신미송의 틈세 힐링토피아 자치플라자 이선신의 아침노크 장순휘 국방토크 윤명철의 ‘종횡무진’ 경제 칼럼 韓中日 삼국지 환경칼럼 생활 속 법무상담 최원영의 행복이야기 문화칼럼 융합비즈니스 코너 강석승의 북한 평설(評說) 정종민 칼럼 ESG와 녹색경영 김준우 칼럼 이상순의 음악이 있는 삶 특별기고 기자의눈 時評 독자투고 사람과 사람 전체 인천 경기 새얼굴 인사 부고 결혼 기호경제 만평 특집 전체 기획특집 7대륙 최고봉 오르다 이슈&amp;인물 설 특집 신년특집 지령 8000호 창간 34주년 차 한잔 합시다 남양주, 한강문명의 시원을 찾다 학생이 행복한 경기교육 경기도 우수여성기업 인천노포 백년가게 남양주,그린으로 달리다 ESG와 만나다 우리 고장 명물 지금 우리 학교는 청년, 예술하다 본사행사 전체 어린이날 대축제 수원화성 그림그리기대회 봄사랑 가족축제 전국바둑대회 미래도시그리기대회 통일염원 문화예술대회 가족사랑 걷기축제 중국의날 문화축제 송년 제야의 밤 문화축제 자선골프대회 참여성경제인 대상 3·1절 단축마라톤대회 K-POP 댄스경연대회 기호 참일꾼상 고양시 장애청소년 어울림 페스티벌 제1회 보람상조배 탁구대회 친환경 자전거 베스티벌 어린이 합창대회 코리아맨 송도대회 2020 인천소상공인 힘내라 기호자치 의정대상 지난연재 전체 경제인물 주식 유망기업을찾아 건강칼럼 우리동네최고 NGO를찾아서 만나고싶었습니다 미디어ㆍ오락 영화ㆍ책 산책 우리학교 짱 Week&amp;Do 정가 미니보고 인천의 최초.최고 춘추관25시 윤영자의 세무에센스 한국最初 인천最古 주말매거진 Hot &amp; Issue 연재 전체 포토 슬라이드 포토뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>봄기운 만연한 제주도로, 서귀포 중문에서 관광 후 흑돼지 맛집까지 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 봄기운 만연한 제주도로, 서귀포 중문에서 관광 후 흑돼지 맛집까지 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 봄기운 만연한 제주도로, 서귀포 중문에서 관광 후 흑돼지 맛집까지 기자명 장준영 기자 승인 2018.03.02 15:02 댓글 0 조회수 : 2119 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 사계절 내내 각기 다른 매력을 가진 제주도이지만, 움츠러들게 했던 추위가 물러가고 만물이 소생하는 계절, 봄철의 제주도는 유독 설렌다. 제주도 어디를 가도 자연이 만들어낸 멋진 경관과 맛있는 음식들이 관광객을 반기지만 서귀포시에 위치한 ‘중문관광단지’는 세계적으로도 인정받는 제주도의 대표적인 종합관광휴양단지다. 먼저 중문 해안가를 중심으로 여러 유명 호텔들이 자리 잡고 있고, 천제연폭포와 지삿개 주상절리, 용머리해안, 색달해변 등 제주 특유의 자연이 주는 감동과 함께 퍼시픽랜드와 여미지식물원, 아쿠아플라넷, 믿거나말거나박물관 등 도심에서는 경험하기 어려운 각종 테마 체험과 맛있는 제주특산음식까지. 중문 안에서 다양한 ‘제주 힐링여행’이 가능하다.특히 이맘때 제주도에 가면 절대 빼놓을 수 없는 유채꽃까지, 중문동에 위치해 있는 ‘엉덩물계곡’에서 만발한 유채꽃을 보며 봄기운을 만끽하기에 좋다. 아이를 동반한 가족단위의 여행이라면 어린이들이 좋아할만한, 돌고래쇼를 볼 수 있는 ‘퍼시픽랜드’와 ‘아쿠아플라넷’, 견학장소로도 좋은 ‘여미지식물원’ 등 다채롭게 코스를 정할 수 있다. 하지만 금강산도 식후경 아닌가. 제주도에 왔으니 제주도의 대표적인 음식 흑돼지 식사는 빠질 수 없다. 중문동 2025-1에 위치한 ‘돈가득’은 제주산 두툼한 흑돼지를 품질 좋은 참숯에 굽는데, 굽기 직전 복분자를 뿌려주어 잡내를 없앤다.또 주인장이 제주산 청정재료로 직접 만드는 정갈한 반찬과 점심특선메뉴로 제공되는 전복을 넣은 ‘흑돼지불고기전골’까지, 어느 것 하나 주인장의 정성과 진심이 담기지 않은 것이 없다.흑돼지 이외에 오겹살과 대패삼겹살, 소등갈비살 등 고기메뉴가 다양하게 제공되며 함께 구워먹는 버섯과 소시지, 된장찌개 등 서브메뉴의 맛도 일품이다.MBC에브리원 ‘맛있을 지도’ 먹방 프로그램에 소개되어 좋은 반응을 얻은바 있는 ‘돈가득’, 예약 및 문의가능하다. 장준영 기자 pamir63@busaneconomy.com 장준영 기자 pamir63@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
   </si>
   <si>
     <t>제주도 우도 맛집 ‘호로락’, 검멀레해변 찾아오는 관광객 위한 점심식사 제공 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.08.01 (월) 흐림동두천 24.6℃ 흐림강릉 25.3℃ 비서울 25.4℃ 비대전 24.8℃ 흐림대구 28.7℃ 구름많음울산 26.8℃ 비광주 25.8℃ 구름많음부산 26.4℃ 흐림고창 26.5℃ 비제주 28.1℃ 구름많음강화 25.3℃ 흐림보은 26.1℃ 흐림금산 23.8℃ 구름많음강진군 27.2℃ 흐림경주시 26.0℃ 구름많음거제 28.2℃ 기상청 제공 회원가입 로그인 검색어를 입력해주세요. 검색하기 정치 청와대 대통령실 국회 정당 정부 선거 통일·외교 경제 경제일반 폴리경제인터뷰 폴리경제이슈 금융·증권 산업·재계 교통·유통·물류 IT·통신 생활경제 건설·부동산 바이오 소상공인 공기업 오피니언·이슈 이슈·기획 정국진단 인터뷰 좌담회 스페셜 인터뷰 칼럼 기고 기자수첩 카드뉴스 여론조사 여론조사 Bank 폴리 여론조사 사회·문화 사회 문화 교육 국제 연예 스포츠 생활 사회·문화 인터뷰 공공지방 지방자치 공공기관 단체장 인터뷰 호남 취재본부 부산·울산·경남 대구·경북 폴리TV 폴리인터뷰 폴리현장 폴리 좌담회 정치를 알려주마 경제브리핑 들어보이소 포토뉴스 직격인터뷰 김능구와이강윤의 여론조사대해부 폴리경제인터뷰 직격인터뷰 기획특집 4.7 재보궐선거 21대 총선 7회 지방선거 19대 대선 한국정당실록60년 상생과통일포럼 18차 금융포럼 창간 21주년 17차 경제산업포럼 16차 경제포럼 15차 경제산업포럼 창간 20주년 14차 경제산업포럼 13차 경제산업포럼 창간 19주년 12차 경제포럼 11차 경제포럼 창간 18주년 10차 경제포럼 8차 경제포럼 창간 17주년 7차 경제포럼 6차 경제포럼 창간 16주년 5차 금융포럼 4차 경제포럼 3차 금융포럼 2차 통일세미나 1차 경제세미나 리더십과정 서비스 알립니다 인사·동정·부고 소상공인 홈 경제 소상공인 제주도 우도 맛집 ‘호로락’, 검멀레해변 찾아오는 관광객 위한 점심식사 제공 강유라 기자 news@pcss.co.kr 등록 2018.03.02 09:49:34 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 차디찬 겨울도 점차 물러나고 있다. 전국적으로 따뜻한 기후가 이어지며 이를 계기로 많은 이들이 단기간 휴가와 가족여행을 통해 제주도로 몰리고 있다. 제주도는 성산일출봉과 수백 개의 오름 등 천혜의 자연관광지를 비롯해 이국적인 풍경도 볼 수 있는 곳이다.특히 제주도의 부속 섬인 우도는 아름다운 해변과 함께 오직 향토음식을 통해 다양한 식사를 선보여 찾아오는 국내외 관광객에게 뜻깊은 추억을 선사하는 곳이다.이 중 제주도 우도 맛집으로 알려져 검멀레해변에 위치한 ‘호로락’은 최근 찾아오는 관광객들에게 점심식사를 제공한다고 밝혔다.‘호로락’은 전복게우밥과 보말칼국수, 해물라면과 해물칼국수 같은 이색메뉴를 갖춘 곳이다.라면스프는 일체 사용하지 않는 ‘호로락’은 특별히 각종 야채로만 육수를 끓여 깊은 맛을 보유한 곳이다.이 중 전복 및 꽃게와 딱새우, 홍합, 오징어가 들어간 해물라면의 경우 짬뽕국물과 유사한 칼칼한 맛을 보유해 남녀노소 불문하고 두루 찾는 메뉴다. 또한 해물칼국수 역시 비슷한 맛으로 쫄깃한 면발과 함께 식사가 가능하다.‘호로락’의 보말칼국수는 라멘처럼 깔끔한 맛을 선사한다. 아이들이 먹기에 좋을 정도로 손쉬운 먹거리로 제공되고 있다.이 외에도 전복과 통마늘, 귤, 계란후라이와 마요네즈가 구성되어 제공되는 전복게우밥이 있어 푸짐한 식사가 가능하다.이처럼 다채로운 식사메뉴로 무장한 ‘호로락’은 우도만의 향토음식 식사가 가능하다.한편 ‘호로락’ 관계자는 “검멀레해변에 위치해 있으며 다채로운 점심식사메뉴로 관광객들에게 즐거운 식사를 제공하기 위해 노력하고 있다”라고 전했다.‘호로락’은 현재 인스타그램, 페이스북 공유 시 음료 서비스를 제공 중이다. 강유라 기자 의 전체기사 보기 관련태그 #우도 맛집 #호로락 강유라 기자 기업현장을 찾고 있습니다. 알아두면 쓸모있는 우리 주변의 정보를 모으겠습니다. 이메일news@pcss.co.kr 페이스북 트위터 카카오톡 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 ⓒ 폴리뉴스(www.polinews.co.kr), 무단전재 및 재배포금지폴리뉴스는 인터넷신문위원회의 인터넷신문 윤리강령을 준수합니다. 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 추천기사 칼럼 [정연아의 정치인 이미지 거꾸로 보기] 윤석열 대통령의 패션이 심각하다(1) [이슈] 위기의 대한민국 ‘복합경제위기-美中 경제안보갈등-대통령리더십 실종’ 이명박·이재용 사면되나…이르면 내달(8월) 9일, 8·15 광복절 특별사면 심사위 개최 ‘문자대화 파문’ 尹대통령 여름휴가 겹치면서 내주까지 도어스테핑 중단 손배소·가압류 제한하는 '노란봉투법'…대우조선 사태 계기로 제정될까 국민의힘 윤리위 “이준석 징계, 尹과 연계하는 건 악의적 프레임” 많이 본 기사 1[정연아의 정치인 이미지 거꾸로 보기] 윤석열 대통령의 패션이 심각하다(1) 2경주 야간관광 프로그램‘신라달빛기행’스타트 3[이슈] 이재명 “저학력·저소득층 국힘, 부자는 민주당 지지” "무당의 나라" 일파만파 4면세점, 위스키 판매량 급증…신 트렌드로 떠올라 ‘시선집중’ 5[이슈] 권성동 당대표 대행 사퇴, 조수진·윤영석 최고위원도 사퇴…비대위 체제 전환 6민주당 8.28 전대, 97그룹 박용진-강훈식 반명 단일화 온도차 7손해보험 설계사 최고의 영예, '2022 블루리본 컨설턴트' 2,415명 선정…전년 대비 42명 증가 8경주시, 제1회 추경 예산안 1조 9,000억 편성...'예산 2조원 시대' 눈앞 9이준석, ‘양두구육’ 이어 “개 머리 걸고 개고기 팔려는 듯” 친윤 맹공 이슈 더보기 [정연아의 정치인 이미지 거꾸로 보기] 윤석열 대통령의 패션이 심각하다(1) 대한민국 윤석열 대통령의 패션이 매우 심각하다. 얼마 전, 국내 포털 사이트 실시간 검색어 1위에 ‘윤석열 바지’가 올랐다. 윤대통령이 바지를 거꾸로 입은 듯한 사진(위)이 SNS에서 화제가 되고 몇몇 언론에도 노출되면서 논란이 된 것이다. 윤대통령의 바지에 무슨 일이 일어났을까. 결론부터 말하면 윤대통령이 입은 정장 바지 품이 너무 커서 바지가 아래로 흘러내렸는데 마치 바지를 거꾸로 입은 듯한 모습이 연출된 것이다. 논란이 된 윤대통령의 바지는 필자의 눈에도 앞뒤 거꾸로 입은 것처럼 보였다. 술에 취해 몸을 가누지 못하는 상태라면 모를까, 출근길에 바지를 거꾸로 입는다는 것이 가능할까 싶었다. PC에서 논란이 된 위 사진을 밝게 처리하고 확대해봤다. 바지의 앞지퍼 봉제선이 매우 흐릿하게 보였다. 지난 8일자, 필자의 블로그에 [윤석열 대통령 바지 패션 참사? 윤대통령은 바지를 거꾸로 입지 않았다]는 주제로 사실을 밝히는 글을 올렸다. 그럼에도 네티즌들은 필자에게 ‘윤대통령 쉴드 치냐’ ‘바지를 거꾸로 입은 것이 맞는데 왜 그렇게 우겨대냐“는 식으로 반응했다. 누가 봐도 바지를 거꾸로 입은 것처럼 보였으므로 필자는 그들을 답답하게 여기진 않았다. 다만 바지 [이슈] 권성동 당대표 대행 사퇴, 조수진·윤영석 최고위원도 사퇴…비대위 체제 전환 [이슈] 尹지지도 20%대 대폭락…‘내부총질’ 문자 ‘권성동 리스크’ 조기 전대 무게 [이명식의 횡설수설] 민주당 컷오프를 통해 드러난 '변화를 바라는 당심' [유창선 칼럼] ‘윤핵관’도 이준석도 여당의 대안이 아니다 인터뷰 더보기 [폴리TV][스페셜 인터뷰]② 이용섭 전 광주시장 “국가균형발전 핵심 정책으로 초광역화 사업 반영돼야” [폴리뉴스 강경우 PD]지역경제발전 일환으로 ‘노사상생 광주형 일자리’를 성공시킨 이용섭 전 당시 광주시장은 4대 원칙을 강조하며 노사 갈등 해결에 중요성을 짚었다. 이는 최근 금속노조, 민주노총 등 전국적으로 확산되었던 대우조선해양 파업 사태에 시사하는 바가 크다. 이 전 광주시장은 25일 열린 &lt;폴리뉴스&gt; 김능구 대표와의 대담을 통해서 “늘 대립과 갈등의 관계였던 노와 사가 모두 만족하는 일자리는 없을까는 질문에 광주가 해결한 것이다”며 노사 상생을 통해 23년 만에 국내 자동차공장을 생산할 수 있던 원동력을 전했다. 그는 “23년만에 처음으로 국내 자동차공장을 건설했고, 이곳에서 첫 양산되고 있는 캐스퍼는 그야말로 대박이 났다”며 “직간접 일자리 1만개 이상을 창출하는 광주형 일자리는 청년들의 일자리 문제 해결과 함께 ‘고비용 저효율’이라는 한국경제의 고질적 문제 해결의 돌파구를 마련했다는 점에서 그 의미가 크다”고 밝혔다. [폴리TV][스페셜 인터뷰]① 이용섭 전 광주시장 “尹정부, 부자감세 비판 면하기 어려워… MB정부 낙수효과 실패 교훈 삼아야” [스페셜 인터뷰] 이용섭 전 광주시장 “국가균형발전 정책, 지역국가(Region State) 개념의 초광역화 전략으로 전면 전환해야” [폴리TV][김능구의 정국진단]이원욱 의원② “윤석열 지지율 20%대까지 떨어질 것…사회적 대타협 국민통합 필요” [김능구의 정국진단] 이원욱 의원② “윤석열 지지율 20%대까지 떨어질 것…사회적 대타협 국민통합 필요” 카드뉴스 더보기 [카드뉴스] KT&amp;G의 '바다 환경'을 지키기 위한 노력을 소개합니다 [폴리뉴스 김상준 기자] "여름철이면 생각나는 바다. 우리 모두가 환경 오염의 심각성을 환기하고 생태계 보호의 중요성을 공감해 환경보호를 실천하도록 KT&amp;G도 함께 노력하겠습니다" 지구 표면 2/3 이상을 차지하며 30만여 종의 생물이 살고 있다는 생명의 보고, 바다! 특히 여름철, 휴가를 갈곳으로 가장 먼저 떠올리곤 합니다. 2015년 세계자연기금(WWF)에서 발표한 자료에 따르면 바다의 자산 가치는 24조달러(2경9000조) 이상입니다. 휴가철에 보는 아름다운 경관뿐만 아니라 경제적 자산으로서도 바다는 매우 소중하고 가치있다고 할 수 있습니다. 하지만 이렇게 소중한 바다가 환경오염으로 인해 심각한 위험에 처해 있습니다. 일회용품 소비가 급증하면서 해양 쓰레기로 인한 생태계 피해가 심각한 수준입니다. 여러 단체가 바다를 위한 노력을 기울이는 가운데, KT&amp;G 역시 '바다환경 지키기'에 적극 동참하고 있습니다. KT&amp;는 2022년해양환경공단, 사단법인, 동아시아바다공동체 오션과 함께 바다를 지키기 위한 업무협약을 체결했습니다. 이 협약은 올해 다양한 해양 환경 활동을 추진하는 내용을 담고 있습니다. 특히 해양 오염 심각지역 실태조사 [카드뉴스] 팽팽한 찬반 논란의 '지역상권법'…뭐길래 [폴리뉴스 김미현 기자] ‘지역상권 상생 및 활성화에 관한 법률안(지역상권법)’제정을 놓고 찬반 의견이 팽팽하게 맞붙고 있습니다. 이 법은 지역상생구역이나 자율상권구역으로 지정된 지역에 스타벅스 같은 대기업 계열 점포의 출점을 제한하는 것이 골자입니다. 대상은 유통산업발전법(유통법)과 중소기업 적합업종제도 등에 포함되지 않아 규제를 받지 않는 대기업입니다. 법안이 시행될 경우대기업이 운영하는 직영 점포의 신규 매장을 열기 위해서는 지역상인의 동의를 받아야 합니다. 이는 임대료 상승에 따른 소상공인의 내몰림 현상(젠트리피케이션) 문제를 막고자 마련됐습니다. 복합 쇼핑몰이 들어오면 주변 임대료가 뛰는 경향이 있습니다. 하지만 이를 두고 유통업계는 소비자들의 편의성을 떨어뜨리는 과도한 중복 규제라고 반발에 나섰습니다. 또 재산권과 영업의 자유를 침해하는데다 대기업 프랜차이즈보다 자영업체의 고용률이 낮아질 가능성도 우려하고 있습니다. 하지만 지역상권의 특색을 유지하기 위해서는 해당 법안의 제정이 필요하다는 의견도 나옵니다. 소상공인과 대기업 모두'상생'을 이룰 수 있는정책이 절실한 때입니다. 트렌드&amp;토픽 더보기 [정연아의 정치인 이미지 거꾸로 보기] 윤석열 대통령의 패션이 심각하다(1) 대한민국 윤석열 대통령의 패션이 매우 심각하다. 얼마 전, 국내 포털 사이트 실시간 검색어 1위에 ‘윤석열 바지’가 올랐다. 윤대통령이 바지를 거꾸로 입은 듯한 사진(위)이 SNS에서 화제가 되고 몇몇 언론에도 노출되면서 논란이 된 것이다. 윤대통령의 바지에 무슨 일이 일어났을까. 결론부터 말하면 윤대통령이 입은 정장 바지 품이 너무 커서 바지가 아래로 흘러내렸는데 마치 바지를 거꾸로 입은 듯한 모습이 연출된 것이다. 논란이 된 윤대통령의 바지는 필자의 눈에도 앞뒤 거꾸로 입은 것처럼 보였다. 술에 취해 몸을 가누지 못하는 상태라면 모를까, 출근길에 바지를 거꾸로 입는다는 것이 가능할까 싶었다. PC에서 논란이 된 위 사진을 밝게 처리하고 확대해봤다. 바지의 앞지퍼 봉제선이 매우 흐릿하게 보였다. 지난 8일자, 필자의 블로그에 [윤석열 대통령 바지 패션 참사? 윤대통령은 바지를 거꾸로 입지 않았다]는 주제로 사실을 밝히는 글을 올렸다. 그럼에도 네티즌들은 필자에게 ‘윤대통령 쉴드 치냐’ ‘바지를 거꾸로 입은 것이 맞는데 왜 그렇게 우겨대냐“는 식으로 반응했다. 누가 봐도 바지를 거꾸로 입은 것처럼 보였으므로 필자는 그들을 답답하게 여기진 않았다. 다만 바지 [정부업무보고] 尹대통령 박순애 장관에게 “교육시스템 재점검-취학연령 1년 앞당겨라” 손배소·가압류 제한하는 '노란봉투법'…대우조선 사태 계기로 제정될까 초대 행안부 경찰국장으로 김순호 치안감 임명…'非경찰대' 출신 '이준석 성상납' 의혹 기업인 측 "접대 여성 보냈다"…기존 주장 구체화 폴리TV 더보기 [폴리TV][스페셜 인터뷰] 씽크풀 김동진 대표 “외국인 반년째 국내주식 ‘팔자’, 미중 갈등·韓저출산 영향” [폴리TV][스페셜 인터뷰]② 이용섭 전 광주시장 “국가균형발전 핵심 정책으로 초광역화 사업 반영돼야” [폴리TV][스페셜 인터뷰]① 이용섭 전 광주시장 “尹정부, 부자감세 비판 면하기 어려워… MB정부 낙수효과 실패 교훈 삼아야” [폴리TV][김능구의 정국진단]이원욱 의원② “윤석열 지지율 20%대까지 떨어질 것…사회적 대타협 국민통합 필요” 매체소개 이용약관 개인정보취급방침 청소년보호방침 (책임자 : 한유성) 기사제보 이메일 무단수집거부 (07327) 서울 영등포구 여의나루로 71 동화빌딩 1607호 | 대표전화 02-780-4392등록번호 : 서울아00050 | 등록일자 : 2005년 9월 12일 | 발행인 : (주)이윈컴 김능구 | 편집인 : 박혜경 폴리뉴스의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright © 2000 (주)이윈컴. All rights reserved. mail to polinews@polinews.co.kr UPDATE: 2022년 08월 01일 07시 02분 최상단으로</t>
   </si>
   <si>
-    <t>[제주도 여행]제주 동문·서귀포 매일올레 등 전통 야시장, 이색 먹거리로 관광객 발길 이끌어 &lt; 행사/축제 &lt; 문화 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [제주도 여행]제주 동문·서귀포 매일올레 등 전통 야시장, 이색 먹거리로 관광객 발길 이끌어 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 문화 행사/축제 [제주도 여행]제주 동문·서귀포 매일올레 등 전통 야시장, 이색 먹거리로 관광객 발길 이끌어 기자명 금강일보 입력 2018.03.10 17:07 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 이번 주말(10∼11일) 제주는 대체로 맑고 일교차가 큰 날씨를 보이겠다.제주시 원도심에 있는 동문시장에는 이색 먹거리가 풍성한 야시장이 개장해 도민과 관광객 발길을 이끌고 있다. ◇ 대체로 맑음토요일인 10일은 맑겠다.아침 최저기온은 3∼5도, 낮 최고기온은 11∼12도로 예상된다.일요일인 11일에도 대체로 맑은 날씨가 이어진다.아침 최저기온은 3∼5도, 낮 최고기온은 12∼14도로 예상된다.주말 동안 아침에는 기온이 많이 떨어져 일교차가 크겠다. 중산간 이상 지역에는 서리가 내리는 곳이 있겠으니 건강관리와 농작물 관리에 유의해야 한다.바다의 물결은 제주도 전 해상에서 0.5∼2ｍ 높이로 일겠다.제주동문시장[제주시 제공=연합뉴스] ◇ '이색 먹거리' 풍성 원도심 야시장의 달빛 유혹제주시 원도심에 있는 동문시장에는 지난 7일부터 다양한 먹거리를 선보이는 야시장이 문을 열어 오후 6시부터 야간 손님을 맞는다.32개의 이동식 판매대에서 감귤새우튀김, 흑돼지오겹말이, 우도땅콩 초코스낵, 함박스테이크, 이색오메기떡, 제주반반김밥 등 제주의 특색과 전통음식을 가미한 다양한 퓨전음식을 판매한다.가격도 저렴한 편이라 시장 나들이를 즐기면서 출출한 배를 채우기에 딱이다.아케이드 안에 들어섰고 전기와 조명시설도 갖춰져 있어서 우천시나 야간에 운영하는 데 지장이 없도록 했다.동문시장에서 갈치를 파는 모습[연합뉴스 자료사진] 제주 최대 상설시장인 동문시장은 관광객들이 손꼽는 관광명소 중 하나다. 한국관광공사가 선정한 '지자체별 국민이 선호하는 겨울철 관광지 톱 20'에 뽑히기도 했다.감귤이나 오메기떡, 갈치 등 가족·친구 등에게 선물할 특산품을 사기 좋고 먹거리도 다양하다.시장이 있는 제주시 이도1동은 제주시 원도심으로 주변에서는 과거 제주시의 추억이 어린 주요 시설과 주택, 골목길 등을 볼 수 있다. 걸어서 이동할 수 있는 거리에 산지천, 칠성로 쇼핑거리, 김만덕기념관과 김만덕 객주, 탑동광장, 아라리오뮤지엄 등도 있다.제주산 고기를 사서 일정 금액의 자릿값을 내고 구워 먹을 수 있는 정육식당이 있는 서문시장, 수제 순대가 유명한 보성시장도 멀지 않은 곳에 있다.활기 넘치는 서귀포 매일올레시장[연합뉴스 자료사진] 제주시에 동문시장이 있다면 서귀포시에서는 매일올레시장이 유명하다.매일올레시장은 국물 떡볶이, 튀김, 김밥 등 각종 분식류를 한데 모아 내놓는 모다치기, 꽁치김밥 등 맛있는 먹거리로 유명하다.제주산 제철 생선과 과일 등을 살 수 있으며 횟집과 식당가도 모여 있다.매일올레시장 인근 이중섭거리에서는 주말에 문화예술시장이 열려 아기자기하고 예쁜 소품과 수공예품 등을 판매한다.이중섭거리는 이중섭 화백이 한국전쟁 당시 기거했던 초가집을 복원한 이중섭 생가 주변의 거리다. 이곳에는 이중섭미술관과 아기자기한 소품 가게, 카페 등이 모여 있다.이중섭 생가 앞에는 최근 매화와 목련이 꽃을 피워 봄 분위기도 물씬 풍기고 있다.봄 소식 전하는 홍매화 '활짝' 최근 매화원에 매화나무들이 꽃을 활짝 피운 걸매생태공원도 멀지 않은 곳에 있어서 봄나들이를 즐길 수 있다.서귀포시는 향토오일시장, 매일올레시장, 아랑조을거리, 칠십리 음식특화거리, 외돌개, 이중섭거리, 천지연폭포, 서복전시관, 정방폭포 등 시내 유명 관광지와 전통시장을 두루 거치는 시티투어버스를 운영하고 있다.전기저상버스로 운영되는 시티투어버스는 매일 오전 9시부터 오후 9시 35분까지 35∼40분 간격으로 운행한다. 저작권자 © 금강일보 무단전재 및 재배포 금지 금강일보 jhc@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 [속보]4호선 지하철 시위, 4일 출근길 지연 고명환 와이프 임지은 프로필은? [오늘의 운세] 4일 띠별 나의 운세는? 시사 지역 문화·연예 01 [속보]4호선 지하철 시위, 4일 출근길 지연 02 유승민, 보수 차기 대권주자 1위... 범진보 이재명 독주[리처치뷰 여론조사] 03 '러시아 동원령' 안현수는? 04 대전·세종 집값 하락폭 전국 1·2위 다투는 중 05 충북 옥천에 첫 ‘e편한세상 퍼스트원’ 분양 06 여수 해상서 기름유출 사건 발생 07 [오늘날씨] 개천절 흐리고 비, 내일까지 수도권 최대 100mm 08 대전상의-민주당 ‘지역경제 활성화’ 간담회 09 이자 부담 느는데 중도상환도 어렵다 10 “고물가에 후원금도 줄었는데…” 11 공공요금 ‘더블인상’...시름하는 충청경제 12 군가 '멸공의 횃불' 왜 가사 바뀌었나? 13 국민 절반 ‘육사 충남 이전’ 찬성 14 [尹정부 첫 국감] 외통위·국방위 등서 文·尹 정권 격돌 예고 전체보기 01 [백제문화제 이모저모] 발 디딜 틈 없이 ‘문전성시’ 02 아산시, 배방 지역 공공기여 협약 체결 03 부여군장애인종합복지관 찾은 ‘사랑의짜장차’ 04 국립부여박물관, 특별전 ‘백제 기술, 흙에 담다’ 개최 05 국학원, 단기4355년 개천절 기념, '한국인이 한국인답게' 경축 행사 개최 06 부여군, ‘백제 사비천도 페스타’ 선봬 07 천안시 2022 충남체전 종합 우승 ··· 역대 최고 성적 08 이명수 의원, 지방문화원 지원 강화 법 발의 09 제천시, 특정업체에 ‘일감몰아주기’ 의혹 논란 10 영동군, 도약과 발전을 위한 2023년 청사진 제시 11 보은군의회, 의원 발의 조례 2건 의결 12 영동군, 민선8기 첫 추경 역대 최대 7673억 원 확정 13 단양 도담정원, 2만㎡ 황화 코스모스 물결 장관 14 괴산유기농산업엑스포, 입장객 10만 명 돌파 전체보기 01 고명환 와이프 임지은 프로필은? 02 이천수 와이프 심하은 누구? 03 엄정화 올케 윤혜진, 사이좋은 모습 공개 04 송가인 최애 가수는 바이브 05 박수홍, 봉사활동 모습 공개 06 '조이 언급' 크러쉬 당황시킨 비비 07 구단주 허재의 '살벌한 욕설' 이유 08 '신혼' 손예진, 현빈과 달달한 모습 공개 09 임영웅과 데이트하는 영상? ‘사랑해 진짜’ 10 '수리남' 김민귀 "광신도 연기하려..." 11 설민석 2년만 방송 복귀, 대중들 반응은? 12 김용건 예비며느리 황보라, 차현우와 혼인신고 완료 13 박민영 재력가 열애설부터 친언니 사외이사 선임까지 14 구준엽♥서희원, “화장실 갈 때도 안아서 데려가” 전체보기 가장 빠른 충청뉴스 아산시, 배방 지역 공공기여 협약 체결 아산시 배방 공수 지역 개발사업자들이 총 1000억 원의 공공기여금을 통해 해당 지역의 교통환경을 개선을 돕게 된다.박경귀 시장은 지난달 30일 신도리코 공장 이전 부지 개발사업자... [백제문화제 이모저모] 발 디딜 틈 없이 ‘문전성시’ 부여군장애인종합복지관 찾은 ‘사랑의짜장차’ 국립부여박물관, 특별전 ‘백제 기술, 흙에 담다’ 개최 스포츠 뉴스 천안시, 충남체육대회 종합 우승 차지 대전도시공사 펜싱팀 하태규 ‘금빛 찌르기’ [포토] 설동호 교육감 전국체전 출전 선수단 격려 ‘현대가(家)’ 리디아 고, 약혼자가 걱정해... [사진뉴스] LX 지역본부, 충남체육회에 전국체전 기부금 전달 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>김영진 제34대 제주도 관광협회장 선출 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 김영진 제34대 제주도 관광협회장 선출 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 김영진 제34대 제주도 관광협회장 선출 지유리 기자 승인 2018.03.04 18:56 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × “관광사업체 경쟁력 강화” 초점 [제주일보=지유리 기자] 제주특별자치도관광협회 제34대 회장에 김영진 현 회장이 연임됐다.제주특별자치도관광협회는 2일 제주웰컴센터 3층 대회의실에서 제34대 김영진 회장 취임식을 개최했다. 이날 취임식은 제주특별자치도관광협회 업종별분과위원장, 대의원, 업종별 분과위원회 운영위원회 임원단, 협회 직원 등 100여 명이 참석한 가운데 진행됐다.김 회장은 “올해는 6·13 지방선거 등 불안정한 관광 환경과 중앙정부의 외국인 분산 정책으로 녹록치 않은 한해가 될 것”이라며 “질적 성장에 맞춰 관광객 만족도와 도민 수익향상, 관광사업체 경쟁력 강화에 초점을 두고 구체적인 실천 전략을 수립해 나가겠다”고 밝혔다.또 “진실 공약을 위해 의견을 경청하고 사무 본부의 조직 개편을 통한 역량을 결집해 나가겠다”고 강조했다. 지유리 기자  geena62@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 지유리 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 게스트하우스서 또 여성관광객 대상 성범죄…"또 파티가 문제야?" - 이투데이 속보창 구독신청 RSS 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 사회 사건/사고 제주도 게스트하우스서 또 여성관광객 대상 성범죄…"또 파티가 문제야?" 입력 2018-03-19 11:13 이재영 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 (연합뉴스)제주도 게스트하우스에서 또 다시 여성관광객을 대상으로 한 성범죄가 벌어져 충격을 안겼다. 19일 제주동부경찰서에 따르면 20대 여성을 성폭행하려다 상처를 입힌 혐의(강간치상)로 A(29) 씨를 입건해 조사 중이다.A 씨는 11일 오후 10시 30분께 제주시 구좌읍 한 게스트하우스 주변 해변에서 여성관광객 B 씨를 성폭행하려한 혐의를 받고 있다. B 씨는 저항하는 과정에서 무릎과 팔에 찰과상을 입었다. 관련 뉴스 ‘제주도 게스트하우스’ 살해 용의자 한정민, 수원서 추격 중…택시 타고 이동 제주도 게스트하우스 살인 용의자 한정민, 성범죄 혐의자가 게스트하우스 관리 가능했던 이유 제주도 게스트하우스 살인 용의자 한정민, SNS에 유명 배우와 버젓이…투숙객 "내 사진 지워라" 포항에서 소방관으로 일하는 A 씨는 11일 제주에 관광왔으며 같은 날 일행과 함께 투숙한 B 씨를 게스트하우스에서 마련한 파티에 참석하며 알게 됐다.B 씨는 다행히 도망쳐 게스트하우스에 묵는 친구에게 도움을 요청했고 경찰에 신고했다. 경찰은 12일 0시 35분께 게스트하우스에서 잠을 자고 있던 A 씨를 긴급체포했다.경찰 조사에서 A 씨는 "술에 너무 취해 그런 행동을 한 것 같다"며 일부 혐의를 인정했다.앞서 지난달 7일에는 제주시 구좌읍 모 게스트하우스에 투숙한 20대 여성관광객이 목이 졸려 숨진 채 인근에서 발견되는 사건이 발생한 바 있다.잇따라 여성 관광객을 노린 제주도 게스트하우스 범죄에 자칫 제주 관광시장마저 영향을 끼치지 않을지 주목받고 있다. #게스트하우스 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 '베이비 슬럼프 시대'...아기 발자국을 늘려라 10 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 사회 최신 뉴스 속보 ‘채널A 사건’ 최강욱 의원 1심 무죄 ‘스토킹범죄’ 경찰이 구속영장 신청해도 검사‧판사가 32.6% 기각 8차선 도로에 누워 잔 남성 발견…“누구 인생 망치려고” 서대문구 '영 케어러' 돌봄·경제·취업·학습 지원 전장연, 지하철 4호선 출근길 시위…“지연우려” 오후 9시까지 신규 확진자 1만5725명 …전날보다 4053명 늘어 속보 오후 9시까지 전국 1만5725명 확진…전날보다 4000여명 늘어 개천절 세종대로에 보수단체 3만명 운집…물리적 충돌은 없어 경찰위, ‘경찰국 신설 규칙’ 헌재에 권한쟁의심판 청구 여수 앞바다 폐유 유출에 8시간 긴급방제…오염 원인 파악 중 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 10:05 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.디아이씨 715 3.에이프로젠제약 72 4.일진홀딩스 550 5.KR모터스 81 1.라닉스 1,520 2.오픈엣지테크놀로지 2,500 3.칩스앤미디어 2,950 4.오토앤 2,000 5.유안타제7호스팩 615 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,166,000 +1% 이더리움 1,904,000 +1.82% 비트코인 캐시 167,000 -0.6% 리플 656.6 -0.27% 위믹스 2,581 +1.06% 에이다 612.8 -0.21% 이오스 1,695 -0.24% 트론 88.18 -0.77% 스텔라루멘 166.8 -4.08% 비트코인에스브이 69,550 -0.36% 체인링크 10,730 +2.98% 샌드박스 1,193 +0.93% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+    <t>제주도 게스트하우스서 또 여성관광객 대상 성범죄…"또 파티가 문제야?" - 이투데이 속보창 구독신청 RSS 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 사회 사건/사고 제주도 게스트하우스서 또 여성관광객 대상 성범죄…"또 파티가 문제야?" 입력 2018-03-19 11:13 이재영 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 (연합뉴스)제주도 게스트하우스에서 또 다시 여성관광객을 대상으로 한 성범죄가 벌어져 충격을 안겼다. 19일 제주동부경찰서에 따르면 20대 여성을 성폭행하려다 상처를 입힌 혐의(강간치상)로 A(29) 씨를 입건해 조사 중이다.A 씨는 11일 오후 10시 30분께 제주시 구좌읍 한 게스트하우스 주변 해변에서 여성관광객 B 씨를 성폭행하려한 혐의를 받고 있다. B 씨는 저항하는 과정에서 무릎과 팔에 찰과상을 입었다. 관련 뉴스 ‘제주도 게스트하우스’ 살해 용의자 한정민, 수원서 추격 중…택시 타고 이동 제주도 게스트하우스 살인 용의자 한정민, 성범죄 혐의자가 게스트하우스 관리 가능했던 이유 제주도 게스트하우스 살인 용의자 한정민, SNS에 유명 배우와 버젓이…투숙객 "내 사진 지워라" 포항에서 소방관으로 일하는 A 씨는 11일 제주에 관광왔으며 같은 날 일행과 함께 투숙한 B 씨를 게스트하우스에서 마련한 파티에 참석하며 알게 됐다.B 씨는 다행히 도망쳐 게스트하우스에 묵는 친구에게 도움을 요청했고 경찰에 신고했다. 경찰은 12일 0시 35분께 게스트하우스에서 잠을 자고 있던 A 씨를 긴급체포했다.경찰 조사에서 A 씨는 "술에 너무 취해 그런 행동을 한 것 같다"며 일부 혐의를 인정했다.앞서 지난달 7일에는 제주시 구좌읍 모 게스트하우스에 투숙한 20대 여성관광객이 목이 졸려 숨진 채 인근에서 발견되는 사건이 발생한 바 있다.잇따라 여성 관광객을 노린 제주도 게스트하우스 범죄에 자칫 제주 관광시장마저 영향을 끼치지 않을지 주목받고 있다. #게스트하우스 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 07 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 사회 최신 뉴스 [국감 핫잇슈] 교육부 등 소속기관 등 5년간 사이버 공격 21만 건 50대 남성, 서울 공원서 총상…극단 선택 추정 [포토] 2022 하이서울패션쇼 개막 [포토] 한국패션 미래를 한자리에 '하이서울패션쇼 2022' [포토] 하이서울패션쇼 2022, 3년만에 개최 “통통한 새우젓 알뜰 구매”…3년 만에 마포나루 ‘새우젓 축제’ 열린다 [포토] '내가 가고싶은 회사에서 만드는 제품은' [포토] '붐비는 2022 한국제약바이오 채용박람회' [포토] '내가 가고싶은 제약바이오기업은' [포토] '제약바이오 채용설명회장 열기' 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '비에니끄' 의류 선보이는 모델들 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 12:28 20분지연 코스피 코스닥 1.다이나믹디자인 3,200 2.화천기계 1,270 3.베트남개발1 71 4.유니온머티리얼 325 5.STX 290 1.테라셈 33 2.코아스템 2,680 3.코디엠 165 4.동국알앤에스 765 5.해성산업1우 2,200 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,363,000 -1.31% 이더리움 1,837,000 -2.65% 비트코인 캐시 158,800 -5.02% 리플 708.2 -6.31% 위믹스 2,408 -4.97% 에이다 568.4 -5.89% 이오스 1,488 -7.41% 트론 88.52 -1.32% 스텔라루멘 176.7 -3.07% 비트코인에스브이 68,000 -3.2% 체인링크 10,340 -5.14% 샌드박스 1,130 -5.36% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>[제주도 여행]제주 동문·서귀포 매일올레 등 전통 야시장, 이색 먹거리로 관광객 발길 이끌어 &lt; 행사/축제 &lt; 문화 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [제주도 여행]제주 동문·서귀포 매일올레 등 전통 야시장, 이색 먹거리로 관광객 발길 이끌어 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 문화 행사/축제 [제주도 여행]제주 동문·서귀포 매일올레 등 전통 야시장, 이색 먹거리로 관광객 발길 이끌어 기자명 금강일보 입력 2018.03.10 17:07 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 이번 주말(10∼11일) 제주는 대체로 맑고 일교차가 큰 날씨를 보이겠다.제주시 원도심에 있는 동문시장에는 이색 먹거리가 풍성한 야시장이 개장해 도민과 관광객 발길을 이끌고 있다. ◇ 대체로 맑음토요일인 10일은 맑겠다.아침 최저기온은 3∼5도, 낮 최고기온은 11∼12도로 예상된다.일요일인 11일에도 대체로 맑은 날씨가 이어진다.아침 최저기온은 3∼5도, 낮 최고기온은 12∼14도로 예상된다.주말 동안 아침에는 기온이 많이 떨어져 일교차가 크겠다. 중산간 이상 지역에는 서리가 내리는 곳이 있겠으니 건강관리와 농작물 관리에 유의해야 한다.바다의 물결은 제주도 전 해상에서 0.5∼2ｍ 높이로 일겠다.제주동문시장[제주시 제공=연합뉴스] ◇ '이색 먹거리' 풍성 원도심 야시장의 달빛 유혹제주시 원도심에 있는 동문시장에는 지난 7일부터 다양한 먹거리를 선보이는 야시장이 문을 열어 오후 6시부터 야간 손님을 맞는다.32개의 이동식 판매대에서 감귤새우튀김, 흑돼지오겹말이, 우도땅콩 초코스낵, 함박스테이크, 이색오메기떡, 제주반반김밥 등 제주의 특색과 전통음식을 가미한 다양한 퓨전음식을 판매한다.가격도 저렴한 편이라 시장 나들이를 즐기면서 출출한 배를 채우기에 딱이다.아케이드 안에 들어섰고 전기와 조명시설도 갖춰져 있어서 우천시나 야간에 운영하는 데 지장이 없도록 했다.동문시장에서 갈치를 파는 모습[연합뉴스 자료사진] 제주 최대 상설시장인 동문시장은 관광객들이 손꼽는 관광명소 중 하나다. 한국관광공사가 선정한 '지자체별 국민이 선호하는 겨울철 관광지 톱 20'에 뽑히기도 했다.감귤이나 오메기떡, 갈치 등 가족·친구 등에게 선물할 특산품을 사기 좋고 먹거리도 다양하다.시장이 있는 제주시 이도1동은 제주시 원도심으로 주변에서는 과거 제주시의 추억이 어린 주요 시설과 주택, 골목길 등을 볼 수 있다. 걸어서 이동할 수 있는 거리에 산지천, 칠성로 쇼핑거리, 김만덕기념관과 김만덕 객주, 탑동광장, 아라리오뮤지엄 등도 있다.제주산 고기를 사서 일정 금액의 자릿값을 내고 구워 먹을 수 있는 정육식당이 있는 서문시장, 수제 순대가 유명한 보성시장도 멀지 않은 곳에 있다.활기 넘치는 서귀포 매일올레시장[연합뉴스 자료사진] 제주시에 동문시장이 있다면 서귀포시에서는 매일올레시장이 유명하다.매일올레시장은 국물 떡볶이, 튀김, 김밥 등 각종 분식류를 한데 모아 내놓는 모다치기, 꽁치김밥 등 맛있는 먹거리로 유명하다.제주산 제철 생선과 과일 등을 살 수 있으며 횟집과 식당가도 모여 있다.매일올레시장 인근 이중섭거리에서는 주말에 문화예술시장이 열려 아기자기하고 예쁜 소품과 수공예품 등을 판매한다.이중섭거리는 이중섭 화백이 한국전쟁 당시 기거했던 초가집을 복원한 이중섭 생가 주변의 거리다. 이곳에는 이중섭미술관과 아기자기한 소품 가게, 카페 등이 모여 있다.이중섭 생가 앞에는 최근 매화와 목련이 꽃을 피워 봄 분위기도 물씬 풍기고 있다.봄 소식 전하는 홍매화 '활짝' 최근 매화원에 매화나무들이 꽃을 활짝 피운 걸매생태공원도 멀지 않은 곳에 있어서 봄나들이를 즐길 수 있다.서귀포시는 향토오일시장, 매일올레시장, 아랑조을거리, 칠십리 음식특화거리, 외돌개, 이중섭거리, 천지연폭포, 서복전시관, 정방폭포 등 시내 유명 관광지와 전통시장을 두루 거치는 시티투어버스를 운영하고 있다.전기저상버스로 운영되는 시티투어버스는 매일 오전 9시부터 오후 9시 35분까지 35∼40분 간격으로 운행한다. 저작권자 © 금강일보 무단전재 및 재배포 금지 금강일보 jhc@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 선우은숙 나이, 전 남편 누구? [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 유영재 프로필 화제, 누구길래? 시사 지역 문화·연예 01 [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 02 전장연, 4호선 지하철 시위 11일 화요일도 강행 03 [내일 날씨] 전국 기상청 일기예보, 아침 최저기온 3도 연휴 뒤 출근길 더 추워...점차 맑은 하늘 회복 04 대전·세종 ‘끝없는 부동산 빙하기’ 05 대전·세종 ‘끝없는 부동산 빙하기’ 06 버킷스튜디오 주가 급락, 이유는? 07 제13회 대전효문화뿌리축제 성료 08 시중자금 은행 쏠림, 반작용 우려 09 1호선, 유튜브 자주 끊기는 이유 10 “지속가능한 대학 최선 다할 것” 11 [2022 국감] 사이버범죄 수사관 1인당 200건 사건 담당 12 피플바이오, 주가 강세 보여 13 비난·논란 자초하는 대전시의회 14 국민 허리띠 졸라매는데 공기업은 특혜… 전체보기 01 예산군, 예산장터 삼국축제서 나무 나눠주기 행사 02 단양군, 법정 계량기 정기검사 실시 03 영동군, 어르신 독감예방접종 12일부터 연령별 순차접종 04 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 05 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 06 보은署, 아동안전지킴이 대상 응급처치 교육 실시 07 보은군 삼승면지사체, 독거노인 주거환경 개선 사업 앞장 08 보은 동광초, 초록학교 활동 전시회 열어 09 옥천군 정신건강 홍보주간 운영 10 세종 갈산서원서 가을 수놓는 국악 선율 11 [동정] 보령시장 12 금산군, 우수 평생학습도시 선정 13 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 14 보령시, 전국 자동차 동호인들이 대천해수욕장에 다 모인다 전체보기 01 선우은숙 나이, 전 남편 누구? 02 유영재 프로필 화제, 누구길래? 03 임영웅, ‘TMA 5관왕’ 04 박수홍 엄마 ‘카레사건’ 재조명 05 ‘복귀’ 홍진영, 근황은? 06 송가인 콘서트, 목포 다음은 천안 07 임창정 걸그룹 미미로즈, “200억 다 어디갔어?” 08 ‘공효진♥’케빈오 프로필은? 09 골프선수 박결, 국내 톱스타와 불륜설에... 10 '스맨파' 새삥 안무 표절 논란 뭐길래? 11 고두심 아들 김정환 누구? 12 ‘환승연애2’ 최초 유포자에 고소장 제출 13 비비, 비키니 끈 풀려 대형 노출사고 날 뻔... 14 '여성 골퍼와 불륜설'에 비·조정석 뿔났다 전체보기 가장 빠른 충청뉴스 보령시, 전국 자동차 동호인들이 대천해수욕장에 다 모인다 대천해수욕장에서 15~16일 양일간 ‘2022 제1회 보령 AMC 모터페스티벌’을 개최한다.보령시가 주최하고 아주자동차가 주관하는 이번 축제는 차량 튜닝, 전시, 모터스포츠 등 자... [동정] 당진시장 [동정] 보령시장 [동정] 서산시장 스포츠 뉴스 이정후 여동생 누구길래? 고우석과 결혼 이대호 와이프 신혜정 눈물...‘왜?’ '레전드' 카시야스-푸욜, 게이설 불러 일으킨 커밍아웃 헤프닝 괴물 김민재, 파워랭킹 7위 랭크 윤이나 징계에 박세리, ‘변명은 절대 있을 수 없다’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>김영진 제34대 제주도 관광협회장 선출 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 김영진 제34대 제주도 관광협회장 선출 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 김영진 제34대 제주도 관광협회장 선출 지유리 기자 승인 2018.03.04 18:56 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × “관광사업체 경쟁력 강화” 초점 [제주일보=지유리 기자] 제주특별자치도관광협회 제34대 회장에 김영진 현 회장이 연임됐다.제주특별자치도관광협회는 2일 제주웰컴센터 3층 대회의실에서 제34대 김영진 회장 취임식을 개최했다. 이날 취임식은 제주특별자치도관광협회 업종별분과위원장, 대의원, 업종별 분과위원회 운영위원회 임원단, 협회 직원 등 100여 명이 참석한 가운데 진행됐다.김 회장은 “올해는 6·13 지방선거 등 불안정한 관광 환경과 중앙정부의 외국인 분산 정책으로 녹록치 않은 한해가 될 것”이라며 “질적 성장에 맞춰 관광객 만족도와 도민 수익향상, 관광사업체 경쟁력 강화에 초점을 두고 구체적인 실천 전략을 수립해 나가겠다”고 밝혔다.또 “진실 공약을 위해 의견을 경청하고 사무 본부의 조직 개편을 통한 역량을 결집해 나가겠다”고 강조했다. 지유리 기자  geena62@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 지유리 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -437,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -557,8 +686,335 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
